--- a/file_checks/dataset_wrong_genes_correct_pheno.xlsx
+++ b/file_checks/dataset_wrong_genes_correct_pheno.xlsx
@@ -1451,542 +1451,542 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.403219091059639</v>
+        <v>0.579975266898699</v>
       </c>
       <c r="B2" t="n">
-        <v>0.69437388953782</v>
+        <v>-0.836196341655239</v>
       </c>
       <c r="C2" t="n">
-        <v>0.328356079393724</v>
+        <v>0.599093296294151</v>
       </c>
       <c r="D2" t="n">
-        <v>0.526047727471546</v>
+        <v>0.641122045430271</v>
       </c>
       <c r="E2" t="n">
-        <v>1.78592727770018</v>
+        <v>-2.94688225096372</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0168815049372531</v>
+        <v>-0.00258554548462075</v>
       </c>
       <c r="G2" t="n">
-        <v>1.36669525168513</v>
+        <v>0.0951961791243888</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.962785280845161</v>
+        <v>-0.519977489457342</v>
       </c>
       <c r="I2" t="n">
-        <v>0.149880920548513</v>
+        <v>-0.0222188713403346</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.162425714469264</v>
+        <v>0.22176455412669</v>
       </c>
       <c r="K2" t="n">
-        <v>0.706200432163446</v>
+        <v>-0.385276488415955</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.641338002828018</v>
+        <v>0.371404615106319</v>
       </c>
       <c r="M2" t="n">
-        <v>0.655930339090038</v>
+        <v>-1.7551584494039</v>
       </c>
       <c r="N2" t="n">
-        <v>1.13207695509199</v>
+        <v>-2.44472191667648</v>
       </c>
       <c r="O2" t="n">
-        <v>0.684664470041486</v>
+        <v>-1.09507303560402</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.14071396019607</v>
+        <v>-0.907506690215787</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.846416227916208</v>
+        <v>0.252526078821719</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.640447039450022</v>
+        <v>-1.08036114469686</v>
       </c>
       <c r="S2" t="n">
-        <v>0.34805646403374</v>
+        <v>-0.230869629129728</v>
       </c>
       <c r="T2" t="n">
-        <v>0.789769472699721</v>
+        <v>-0.720622538527475</v>
       </c>
       <c r="U2" t="n">
-        <v>1.2454749333927</v>
+        <v>-0.612692036742103</v>
       </c>
       <c r="V2" t="n">
-        <v>0.532931334914495</v>
+        <v>0.870192147760483</v>
       </c>
       <c r="W2" t="n">
-        <v>1.67123712035135</v>
+        <v>-1.85367142568458</v>
       </c>
       <c r="X2" t="n">
-        <v>1.09734085860971</v>
+        <v>0.0922265709135896</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.296003558448976</v>
+        <v>-0.628380411333457</v>
       </c>
       <c r="Z2" t="n">
-        <v>-1.15664419497456</v>
+        <v>0.943112832683308</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.266972630806781</v>
+        <v>-0.0530015006050842</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.269642177206169</v>
+        <v>0.33535289525871</v>
       </c>
       <c r="AC2" t="n">
-        <v>-1.14866836750735</v>
+        <v>-1.44564956465753</v>
       </c>
       <c r="AD2" t="n">
-        <v>-1.28624991498406</v>
+        <v>0.922184465194365</v>
       </c>
       <c r="AE2" t="n">
-        <v>-1.15243843986657</v>
+        <v>0.915630895440389</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.852249105621667</v>
+        <v>1.40248824388088</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.112935814617916</v>
+        <v>1.01452441847626</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.272591236221937</v>
+        <v>-0.383377361684879</v>
       </c>
       <c r="AI2" t="n">
-        <v>-1.42851510958848</v>
+        <v>0.188201484054055</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.935703039918378</v>
+        <v>-0.875356685771395</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.379222245970652</v>
+        <v>-0.765162793153966</v>
       </c>
       <c r="AL2" t="n">
-        <v>2.02851711052097</v>
+        <v>-0.0432329240779925</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.149623317931864</v>
+        <v>-1.147844303106</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.592704455551694</v>
+        <v>0.116654183653545</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.177256966325586</v>
+        <v>-1.43902994364389</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.67773769830288</v>
+        <v>-0.613287006928257</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.371144098615254</v>
+        <v>1.38173523668409</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.0181196896346194</v>
+        <v>-0.873658514807484</v>
       </c>
       <c r="AS2" t="n">
-        <v>-1.30471150268975</v>
+        <v>-1.12354164737411</v>
       </c>
       <c r="AT2" t="n">
-        <v>-1.38151532012089</v>
+        <v>-0.914275177171774</v>
       </c>
       <c r="AU2" t="n">
-        <v>-1.10650795983303</v>
+        <v>-0.880062355353365</v>
       </c>
       <c r="AV2" t="n">
-        <v>1.3725401081102</v>
+        <v>0.238503226805374</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.986551468981189</v>
+        <v>0.358601860901075</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.504666216935874</v>
+        <v>1.9658903938725</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0.608004609907076</v>
+        <v>-0.32790265612454</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.0816322585137585</v>
+        <v>-0.702165972604644</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.348772659871457</v>
+        <v>-0.434739350349885</v>
       </c>
       <c r="BB2" t="n">
-        <v>-0.73848961050957</v>
+        <v>0.147195946979453</v>
       </c>
       <c r="BC2" t="n">
-        <v>-2.00084869531841</v>
+        <v>-0.974296941993016</v>
       </c>
       <c r="BD2" t="n">
-        <v>-0.18961252312343</v>
+        <v>-0.227900605921778</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.321607957520131</v>
+        <v>2.46629645778674</v>
       </c>
       <c r="BF2" t="n">
-        <v>1.2946210022365</v>
+        <v>-0.832353494769996</v>
       </c>
       <c r="BG2" t="n">
-        <v>-1.45014609139325</v>
+        <v>-0.00114133388066147</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.833357607570259</v>
+        <v>-0.268096883659684</v>
       </c>
       <c r="BI2" t="n">
-        <v>-0.16632898791488</v>
+        <v>-1.90770994470728</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-0.0461286252378767</v>
+        <v>-2.05107264434467</v>
       </c>
       <c r="BK2" t="n">
-        <v>-0.394859473803637</v>
+        <v>0.27108955365649</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0.161827609277185</v>
+        <v>0.249184682520779</v>
       </c>
       <c r="BM2" t="n">
-        <v>-1.21015510450623</v>
+        <v>0.378744895822558</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.900269610624328</v>
+        <v>1.15793756763269</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.776432573627781</v>
+        <v>-0.507304060151007</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.222123558697613</v>
+        <v>-0.597104784533281</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.231347404615415</v>
+        <v>0.828097231070116</v>
       </c>
       <c r="BR2" t="n">
-        <v>1.40192859556824</v>
+        <v>0.80603380478034</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.159883488492054</v>
+        <v>-0.421484550135212</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.864441504877535</v>
+        <v>0.494493089018498</v>
       </c>
       <c r="BU2" t="n">
-        <v>1.14859508737795</v>
+        <v>2.89188704470991</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.413497939316325</v>
+        <v>-0.0360803769164538</v>
       </c>
       <c r="BW2" t="n">
-        <v>-1.28765526940909</v>
+        <v>1.0032019893492</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.960255283457137</v>
+        <v>0.836174031080568</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.651323088343115</v>
+        <v>0.106999579392184</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.460282138702411</v>
+        <v>0.82161385005402</v>
       </c>
       <c r="CA2" t="n">
-        <v>1.36479815164859</v>
+        <v>0.139859125118024</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.248455165374885</v>
+        <v>1.81054710805108</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.90933574025835</v>
+        <v>1.07021154727744</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.023015731044409</v>
+        <v>-0.0342250573787849</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.506193090410602</v>
+        <v>0.826616663679831</v>
       </c>
       <c r="CF2" t="n">
-        <v>-1.39127777460524</v>
+        <v>-0.00900389340524203</v>
       </c>
       <c r="CG2" t="n">
-        <v>-0.439743463226096</v>
+        <v>0.55113250231614</v>
       </c>
       <c r="CH2" t="n">
-        <v>2.37715879622653</v>
+        <v>1.14316286150286</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.150361660029009</v>
+        <v>-1.54866701631006</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.268620015339313</v>
+        <v>0.35789525378686</v>
       </c>
       <c r="CK2" t="n">
-        <v>1.15727125943779</v>
+        <v>0.781976649339446</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.406560259804345</v>
+        <v>-0.642374638080164</v>
       </c>
       <c r="CM2" t="n">
-        <v>-0.538441667253054</v>
+        <v>0.372127150249954</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.523564641130004</v>
+        <v>-0.162063561481818</v>
       </c>
       <c r="CO2" t="n">
-        <v>1.15149531605964</v>
+        <v>0.115523251455304</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.340412743774107</v>
+        <v>1.90092987486089</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-1.69718913741504</v>
+        <v>-1.95765030495847</v>
       </c>
       <c r="CR2" t="n">
-        <v>1.09493775772054</v>
+        <v>1.18307046971456</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0.381828521978451</v>
+        <v>1.40903837805785</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0.958830733110454</v>
+        <v>-0.597986706408395</v>
       </c>
       <c r="CU2" t="n">
-        <v>1.14975551644773</v>
+        <v>0.303133614418268</v>
       </c>
       <c r="CV2" t="n">
-        <v>-1.03553434208162</v>
+        <v>-0.082367574658474</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.622293550405047</v>
+        <v>-0.314149742617304</v>
       </c>
       <c r="CX2" t="n">
-        <v>-0.619332812947786</v>
+        <v>-2.20849741843583</v>
       </c>
       <c r="CY2" t="n">
-        <v>1.37048195857118</v>
+        <v>1.56891639562197</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.650373366919673</v>
+        <v>0.00886424639288223</v>
       </c>
       <c r="DA2" t="n">
-        <v>1.33426635185362</v>
+        <v>1.64338130473483</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0.561366438188404</v>
+        <v>-0.0552277505382644</v>
       </c>
       <c r="DC2" t="n">
-        <v>-1.74869948782323</v>
+        <v>-1.75774430022077</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.437046729142294</v>
+        <v>-0.30556978044094</v>
       </c>
       <c r="DE2" t="n">
-        <v>-0.612787821335503</v>
+        <v>0.90479228628969</v>
       </c>
       <c r="DF2" t="n">
-        <v>2.06612932670355</v>
+        <v>-0.169406881803974</v>
       </c>
       <c r="DG2" t="n">
-        <v>-1.21704843565056</v>
+        <v>0.247211986963014</v>
       </c>
       <c r="DH2" t="n">
-        <v>-0.98069802649725</v>
+        <v>-0.531430539412127</v>
       </c>
       <c r="DI2" t="n">
-        <v>1.94300092139468</v>
+        <v>1.00033861869214</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0.949038984831564</v>
+        <v>1.97225491042664</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.532422496753999</v>
+        <v>0.997375312959604</v>
       </c>
       <c r="DL2" t="n">
-        <v>-0.407266379021439</v>
+        <v>-0.487353734894808</v>
       </c>
       <c r="DM2" t="n">
-        <v>-0.0368199553748023</v>
+        <v>-0.80573362500093</v>
       </c>
       <c r="DN2" t="n">
-        <v>1.07812312115393</v>
+        <v>-0.365281557037727</v>
       </c>
       <c r="DO2" t="n">
-        <v>-0.0229447365558929</v>
+        <v>1.28680946695886</v>
       </c>
       <c r="DP2" t="n">
-        <v>1.63824642523396</v>
+        <v>-2.01326296554046</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0.485420483692261</v>
+        <v>-0.934502355674558</v>
       </c>
       <c r="DR2" t="n">
-        <v>-1.38716978835341</v>
+        <v>-0.286614611341324</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.140411251326383</v>
+        <v>0.0745388538140937</v>
       </c>
       <c r="DT2" t="n">
-        <v>-1.26908858136245</v>
+        <v>-0.189396097899429</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.0877986024624512</v>
+        <v>-1.16024077152744</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.510666116915923</v>
+        <v>-0.148905378354393</v>
       </c>
       <c r="DW2" t="n">
-        <v>-0.426084625866753</v>
+        <v>1.48851438308517</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.448412855474234</v>
+        <v>0.340953472333767</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.200554082492798</v>
+        <v>-0.156585790343576</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.310807148596698</v>
+        <v>0.513298480628859</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.118683974020954</v>
+        <v>-1.4965890698824</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.495790815733676</v>
+        <v>1.39809323445896</v>
       </c>
       <c r="EC2" t="n">
-        <v>-0.728569240403478</v>
+        <v>0.301792048969663</v>
       </c>
       <c r="ED2" t="n">
-        <v>1.49770208387512</v>
+        <v>-1.94026123187258</v>
       </c>
       <c r="EE2" t="n">
-        <v>-0.808178573742124</v>
+        <v>0.101143429466976</v>
       </c>
       <c r="EF2" t="n">
-        <v>-0.338074062445445</v>
+        <v>-0.774690684385199</v>
       </c>
       <c r="EG2" t="n">
-        <v>-0.205991625113621</v>
+        <v>0.583301752499506</v>
       </c>
       <c r="EH2" t="n">
-        <v>-1.40518387813248</v>
+        <v>1.45122230133759</v>
       </c>
       <c r="EI2" t="n">
-        <v>-0.353112763236432</v>
+        <v>-1.27328437458878</v>
       </c>
       <c r="EJ2" t="n">
-        <v>1.97151242823901</v>
+        <v>-1.11781342160443</v>
       </c>
       <c r="EK2" t="n">
-        <v>1.00352881151389</v>
+        <v>0.953521651511918</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.48517217557707</v>
+        <v>2.23164413510473</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.328602018123105</v>
+        <v>-0.154008742768338</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.0045373459556849</v>
+        <v>-0.480104652827624</v>
       </c>
       <c r="EO2" t="n">
-        <v>1.4910963756431</v>
+        <v>2.10382696962435</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.141141312068252</v>
+        <v>0.154146856678564</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-1.18443074768626</v>
+        <v>-0.0530117866751405</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.759724618157534</v>
+        <v>-1.70110629763358</v>
       </c>
       <c r="ES2" t="n">
-        <v>1.67945921418205</v>
+        <v>-0.608143840091025</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.429840712393331</v>
+        <v>0.536351794097222</v>
       </c>
       <c r="EU2" t="n">
-        <v>1.09891750990849</v>
+        <v>0.524560577847156</v>
       </c>
       <c r="EV2" t="n">
-        <v>1.00381094917806</v>
+        <v>0.340117006922965</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.56067200884371</v>
+        <v>1.32125254293817</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.301729408389257</v>
+        <v>-2.46591856957519</v>
       </c>
       <c r="EY2" t="n">
-        <v>-0.450749775641786</v>
+        <v>2.29286621065086</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-1.15099660343634</v>
+        <v>-0.538410007499702</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.194894701608858</v>
+        <v>0.835936481861012</v>
       </c>
       <c r="FB2" t="n">
-        <v>-0.782002569322226</v>
+        <v>-0.305393940923806</v>
       </c>
       <c r="FC2" t="n">
-        <v>-1.65403059212435</v>
+        <v>-1.06595387833778</v>
       </c>
       <c r="FD2" t="n">
-        <v>-0.302861451864768</v>
+        <v>-0.683650151891422</v>
       </c>
       <c r="FE2" t="n">
-        <v>-0.318902783648474</v>
+        <v>0.252116677463666</v>
       </c>
       <c r="FF2" t="n">
-        <v>-0.84675266651127</v>
+        <v>-0.428220457376711</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.817021262538607</v>
+        <v>-1.62530824919226</v>
       </c>
       <c r="FH2" t="n">
-        <v>1.7619301722406</v>
+        <v>-0.869698576262546</v>
       </c>
       <c r="FI2" t="n">
-        <v>-1.30143850832558</v>
+        <v>-0.694029376347792</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-0.296511311463447</v>
+        <v>-0.500264108267907</v>
       </c>
       <c r="FK2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FL2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM2" t="n">
         <v>1</v>
       </c>
       <c r="FN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP2" t="n">
         <v>1</v>
       </c>
-      <c r="FO2" t="n">
+      <c r="FQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV2" t="n">
         <v>1</v>
       </c>
-      <c r="FP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT2" t="n">
+      <c r="FW2" t="n">
         <v>1</v>
       </c>
-      <c r="FU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW2" t="n">
-        <v>0</v>
-      </c>
       <c r="FX2" t="n">
         <v>0</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="FZ2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GA2" t="n">
         <v>1</v>
@@ -2005,542 +2005,542 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.403219091059639</v>
+        <v>0.579975266898699</v>
       </c>
       <c r="B3" t="n">
-        <v>0.69437388953782</v>
+        <v>-0.836196341655239</v>
       </c>
       <c r="C3" t="n">
-        <v>0.328356079393724</v>
+        <v>0.599093296294151</v>
       </c>
       <c r="D3" t="n">
-        <v>0.526047727471546</v>
+        <v>0.641122045430271</v>
       </c>
       <c r="E3" t="n">
-        <v>1.78592727770018</v>
+        <v>-2.94688225096372</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.0168815049372531</v>
+        <v>-0.00258554548462075</v>
       </c>
       <c r="G3" t="n">
-        <v>1.36669525168513</v>
+        <v>0.0951961791243888</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.962785280845161</v>
+        <v>-0.519977489457342</v>
       </c>
       <c r="I3" t="n">
-        <v>0.149880920548513</v>
+        <v>-0.0222188713403346</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.162425714469264</v>
+        <v>0.22176455412669</v>
       </c>
       <c r="K3" t="n">
-        <v>0.706200432163446</v>
+        <v>-0.385276488415955</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.641338002828018</v>
+        <v>0.371404615106319</v>
       </c>
       <c r="M3" t="n">
-        <v>0.655930339090038</v>
+        <v>-1.7551584494039</v>
       </c>
       <c r="N3" t="n">
-        <v>1.13207695509199</v>
+        <v>-2.44472191667648</v>
       </c>
       <c r="O3" t="n">
-        <v>0.684664470041486</v>
+        <v>-1.09507303560402</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.14071396019607</v>
+        <v>-0.907506690215787</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.846416227916208</v>
+        <v>0.252526078821719</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.640447039450022</v>
+        <v>-1.08036114469686</v>
       </c>
       <c r="S3" t="n">
-        <v>0.34805646403374</v>
+        <v>-0.230869629129728</v>
       </c>
       <c r="T3" t="n">
-        <v>0.789769472699721</v>
+        <v>-0.720622538527475</v>
       </c>
       <c r="U3" t="n">
-        <v>1.2454749333927</v>
+        <v>-0.612692036742103</v>
       </c>
       <c r="V3" t="n">
-        <v>0.532931334914495</v>
+        <v>0.870192147760483</v>
       </c>
       <c r="W3" t="n">
-        <v>1.67123712035135</v>
+        <v>-1.85367142568458</v>
       </c>
       <c r="X3" t="n">
-        <v>1.09734085860971</v>
+        <v>0.0922265709135896</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.296003558448976</v>
+        <v>-0.628380411333457</v>
       </c>
       <c r="Z3" t="n">
-        <v>-1.15664419497456</v>
+        <v>0.943112832683308</v>
       </c>
       <c r="AA3" t="n">
-        <v>-0.266972630806781</v>
+        <v>-0.0530015006050842</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.269642177206169</v>
+        <v>0.33535289525871</v>
       </c>
       <c r="AC3" t="n">
-        <v>-1.14866836750735</v>
+        <v>-1.44564956465753</v>
       </c>
       <c r="AD3" t="n">
-        <v>-1.28624991498406</v>
+        <v>0.922184465194365</v>
       </c>
       <c r="AE3" t="n">
-        <v>-1.15243843986657</v>
+        <v>0.915630895440389</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.852249105621667</v>
+        <v>1.40248824388088</v>
       </c>
       <c r="AG3" t="n">
-        <v>-0.112935814617916</v>
+        <v>1.01452441847626</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.272591236221937</v>
+        <v>-0.383377361684879</v>
       </c>
       <c r="AI3" t="n">
-        <v>-1.42851510958848</v>
+        <v>0.188201484054055</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-0.935703039918378</v>
+        <v>-0.875356685771395</v>
       </c>
       <c r="AK3" t="n">
-        <v>-0.379222245970652</v>
+        <v>-0.765162793153966</v>
       </c>
       <c r="AL3" t="n">
-        <v>2.02851711052097</v>
+        <v>-0.0432329240779925</v>
       </c>
       <c r="AM3" t="n">
-        <v>-0.149623317931864</v>
+        <v>-1.147844303106</v>
       </c>
       <c r="AN3" t="n">
-        <v>-0.592704455551694</v>
+        <v>0.116654183653545</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.177256966325586</v>
+        <v>-1.43902994364389</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.67773769830288</v>
+        <v>-0.613287006928257</v>
       </c>
       <c r="AQ3" t="n">
-        <v>-0.371144098615254</v>
+        <v>1.38173523668409</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.0181196896346194</v>
+        <v>-0.873658514807484</v>
       </c>
       <c r="AS3" t="n">
-        <v>-1.30471150268975</v>
+        <v>-1.12354164737411</v>
       </c>
       <c r="AT3" t="n">
-        <v>-1.38151532012089</v>
+        <v>-0.914275177171774</v>
       </c>
       <c r="AU3" t="n">
-        <v>-1.10650795983303</v>
+        <v>-0.880062355353365</v>
       </c>
       <c r="AV3" t="n">
-        <v>1.3725401081102</v>
+        <v>0.238503226805374</v>
       </c>
       <c r="AW3" t="n">
-        <v>-0.986551468981189</v>
+        <v>0.358601860901075</v>
       </c>
       <c r="AX3" t="n">
-        <v>-0.504666216935874</v>
+        <v>1.9658903938725</v>
       </c>
       <c r="AY3" t="n">
-        <v>-0.608004609907076</v>
+        <v>-0.32790265612454</v>
       </c>
       <c r="AZ3" t="n">
-        <v>-0.0816322585137585</v>
+        <v>-0.702165972604644</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.348772659871457</v>
+        <v>-0.434739350349885</v>
       </c>
       <c r="BB3" t="n">
-        <v>-0.73848961050957</v>
+        <v>0.147195946979453</v>
       </c>
       <c r="BC3" t="n">
-        <v>-2.00084869531841</v>
+        <v>-0.974296941993016</v>
       </c>
       <c r="BD3" t="n">
-        <v>-0.18961252312343</v>
+        <v>-0.227900605921778</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.321607957520131</v>
+        <v>2.46629645778674</v>
       </c>
       <c r="BF3" t="n">
-        <v>1.2946210022365</v>
+        <v>-0.832353494769996</v>
       </c>
       <c r="BG3" t="n">
-        <v>-1.45014609139325</v>
+        <v>-0.00114133388066147</v>
       </c>
       <c r="BH3" t="n">
-        <v>0.833357607570259</v>
+        <v>-0.268096883659684</v>
       </c>
       <c r="BI3" t="n">
-        <v>-0.16632898791488</v>
+        <v>-1.90770994470728</v>
       </c>
       <c r="BJ3" t="n">
-        <v>-0.0461286252378767</v>
+        <v>-2.05107264434467</v>
       </c>
       <c r="BK3" t="n">
-        <v>-0.394859473803637</v>
+        <v>0.27108955365649</v>
       </c>
       <c r="BL3" t="n">
-        <v>-0.161827609277185</v>
+        <v>0.249184682520779</v>
       </c>
       <c r="BM3" t="n">
-        <v>-1.21015510450623</v>
+        <v>0.378744895822558</v>
       </c>
       <c r="BN3" t="n">
-        <v>-0.900269610624328</v>
+        <v>1.15793756763269</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.776432573627781</v>
+        <v>-0.507304060151007</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.222123558697613</v>
+        <v>-0.597104784533281</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.231347404615415</v>
+        <v>0.828097231070116</v>
       </c>
       <c r="BR3" t="n">
-        <v>1.40192859556824</v>
+        <v>0.80603380478034</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.159883488492054</v>
+        <v>-0.421484550135212</v>
       </c>
       <c r="BT3" t="n">
-        <v>0.864441504877535</v>
+        <v>0.494493089018498</v>
       </c>
       <c r="BU3" t="n">
-        <v>1.14859508737795</v>
+        <v>2.89188704470991</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.413497939316325</v>
+        <v>-0.0360803769164538</v>
       </c>
       <c r="BW3" t="n">
-        <v>-1.28765526940909</v>
+        <v>1.0032019893492</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.960255283457137</v>
+        <v>0.836174031080568</v>
       </c>
       <c r="BY3" t="n">
-        <v>-0.651323088343115</v>
+        <v>0.106999579392184</v>
       </c>
       <c r="BZ3" t="n">
-        <v>0.460282138702411</v>
+        <v>0.82161385005402</v>
       </c>
       <c r="CA3" t="n">
-        <v>1.36479815164859</v>
+        <v>0.139859125118024</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.248455165374885</v>
+        <v>1.81054710805108</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.90933574025835</v>
+        <v>1.07021154727744</v>
       </c>
       <c r="CD3" t="n">
-        <v>-0.023015731044409</v>
+        <v>-0.0342250573787849</v>
       </c>
       <c r="CE3" t="n">
-        <v>0.506193090410602</v>
+        <v>0.826616663679831</v>
       </c>
       <c r="CF3" t="n">
-        <v>-1.39127777460524</v>
+        <v>-0.00900389340524203</v>
       </c>
       <c r="CG3" t="n">
-        <v>-0.439743463226096</v>
+        <v>0.55113250231614</v>
       </c>
       <c r="CH3" t="n">
-        <v>2.37715879622653</v>
+        <v>1.14316286150286</v>
       </c>
       <c r="CI3" t="n">
-        <v>0.150361660029009</v>
+        <v>-1.54866701631006</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0.268620015339313</v>
+        <v>0.35789525378686</v>
       </c>
       <c r="CK3" t="n">
-        <v>1.15727125943779</v>
+        <v>0.781976649339446</v>
       </c>
       <c r="CL3" t="n">
-        <v>0.406560259804345</v>
+        <v>-0.642374638080164</v>
       </c>
       <c r="CM3" t="n">
-        <v>-0.538441667253054</v>
+        <v>0.372127150249954</v>
       </c>
       <c r="CN3" t="n">
-        <v>0.523564641130004</v>
+        <v>-0.162063561481818</v>
       </c>
       <c r="CO3" t="n">
-        <v>1.15149531605964</v>
+        <v>0.115523251455304</v>
       </c>
       <c r="CP3" t="n">
-        <v>0.340412743774107</v>
+        <v>1.90092987486089</v>
       </c>
       <c r="CQ3" t="n">
-        <v>-1.69718913741504</v>
+        <v>-1.95765030495847</v>
       </c>
       <c r="CR3" t="n">
-        <v>1.09493775772054</v>
+        <v>1.18307046971456</v>
       </c>
       <c r="CS3" t="n">
-        <v>-0.381828521978451</v>
+        <v>1.40903837805785</v>
       </c>
       <c r="CT3" t="n">
-        <v>-0.958830733110454</v>
+        <v>-0.597986706408395</v>
       </c>
       <c r="CU3" t="n">
-        <v>1.14975551644773</v>
+        <v>0.303133614418268</v>
       </c>
       <c r="CV3" t="n">
-        <v>-1.03553434208162</v>
+        <v>-0.082367574658474</v>
       </c>
       <c r="CW3" t="n">
-        <v>0.622293550405047</v>
+        <v>-0.314149742617304</v>
       </c>
       <c r="CX3" t="n">
-        <v>-0.619332812947786</v>
+        <v>-2.20849741843583</v>
       </c>
       <c r="CY3" t="n">
-        <v>1.37048195857118</v>
+        <v>1.56891639562197</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.650373366919673</v>
+        <v>0.00886424639288223</v>
       </c>
       <c r="DA3" t="n">
-        <v>1.33426635185362</v>
+        <v>1.64338130473483</v>
       </c>
       <c r="DB3" t="n">
-        <v>-0.561366438188404</v>
+        <v>-0.0552277505382644</v>
       </c>
       <c r="DC3" t="n">
-        <v>-1.74869948782323</v>
+        <v>-1.75774430022077</v>
       </c>
       <c r="DD3" t="n">
-        <v>0.437046729142294</v>
+        <v>-0.30556978044094</v>
       </c>
       <c r="DE3" t="n">
-        <v>-0.612787821335503</v>
+        <v>0.90479228628969</v>
       </c>
       <c r="DF3" t="n">
-        <v>2.06612932670355</v>
+        <v>-0.169406881803974</v>
       </c>
       <c r="DG3" t="n">
-        <v>-1.21704843565056</v>
+        <v>0.247211986963014</v>
       </c>
       <c r="DH3" t="n">
-        <v>-0.98069802649725</v>
+        <v>-0.531430539412127</v>
       </c>
       <c r="DI3" t="n">
-        <v>1.94300092139468</v>
+        <v>1.00033861869214</v>
       </c>
       <c r="DJ3" t="n">
-        <v>-0.949038984831564</v>
+        <v>1.97225491042664</v>
       </c>
       <c r="DK3" t="n">
-        <v>0.532422496753999</v>
+        <v>0.997375312959604</v>
       </c>
       <c r="DL3" t="n">
-        <v>-0.407266379021439</v>
+        <v>-0.487353734894808</v>
       </c>
       <c r="DM3" t="n">
-        <v>-0.0368199553748023</v>
+        <v>-0.80573362500093</v>
       </c>
       <c r="DN3" t="n">
-        <v>1.07812312115393</v>
+        <v>-0.365281557037727</v>
       </c>
       <c r="DO3" t="n">
-        <v>-0.0229447365558929</v>
+        <v>1.28680946695886</v>
       </c>
       <c r="DP3" t="n">
-        <v>1.63824642523396</v>
+        <v>-2.01326296554046</v>
       </c>
       <c r="DQ3" t="n">
-        <v>-0.485420483692261</v>
+        <v>-0.934502355674558</v>
       </c>
       <c r="DR3" t="n">
-        <v>-1.38716978835341</v>
+        <v>-0.286614611341324</v>
       </c>
       <c r="DS3" t="n">
-        <v>-0.140411251326383</v>
+        <v>0.0745388538140937</v>
       </c>
       <c r="DT3" t="n">
-        <v>-1.26908858136245</v>
+        <v>-0.189396097899429</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.0877986024624512</v>
+        <v>-1.16024077152744</v>
       </c>
       <c r="DV3" t="n">
-        <v>-0.510666116915923</v>
+        <v>-0.148905378354393</v>
       </c>
       <c r="DW3" t="n">
-        <v>-0.426084625866753</v>
+        <v>1.48851438308517</v>
       </c>
       <c r="DX3" t="n">
-        <v>0.448412855474234</v>
+        <v>0.340953472333767</v>
       </c>
       <c r="DY3" t="n">
-        <v>0.200554082492798</v>
+        <v>-0.156585790343576</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0.310807148596698</v>
+        <v>0.513298480628859</v>
       </c>
       <c r="EA3" t="n">
-        <v>-0.118683974020954</v>
+        <v>-1.4965890698824</v>
       </c>
       <c r="EB3" t="n">
-        <v>0.495790815733676</v>
+        <v>1.39809323445896</v>
       </c>
       <c r="EC3" t="n">
-        <v>-0.728569240403478</v>
+        <v>0.301792048969663</v>
       </c>
       <c r="ED3" t="n">
-        <v>1.49770208387512</v>
+        <v>-1.94026123187258</v>
       </c>
       <c r="EE3" t="n">
-        <v>-0.808178573742124</v>
+        <v>0.101143429466976</v>
       </c>
       <c r="EF3" t="n">
-        <v>-0.338074062445445</v>
+        <v>-0.774690684385199</v>
       </c>
       <c r="EG3" t="n">
-        <v>-0.205991625113621</v>
+        <v>0.583301752499506</v>
       </c>
       <c r="EH3" t="n">
-        <v>-1.40518387813248</v>
+        <v>1.45122230133759</v>
       </c>
       <c r="EI3" t="n">
-        <v>-0.353112763236432</v>
+        <v>-1.27328437458878</v>
       </c>
       <c r="EJ3" t="n">
-        <v>1.97151242823901</v>
+        <v>-1.11781342160443</v>
       </c>
       <c r="EK3" t="n">
-        <v>1.00352881151389</v>
+        <v>0.953521651511918</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.48517217557707</v>
+        <v>2.23164413510473</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.328602018123105</v>
+        <v>-0.154008742768338</v>
       </c>
       <c r="EN3" t="n">
-        <v>0.0045373459556849</v>
+        <v>-0.480104652827624</v>
       </c>
       <c r="EO3" t="n">
-        <v>1.4910963756431</v>
+        <v>2.10382696962435</v>
       </c>
       <c r="EP3" t="n">
-        <v>0.141141312068252</v>
+        <v>0.154146856678564</v>
       </c>
       <c r="EQ3" t="n">
-        <v>-1.18443074768626</v>
+        <v>-0.0530117866751405</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.759724618157534</v>
+        <v>-1.70110629763358</v>
       </c>
       <c r="ES3" t="n">
-        <v>1.67945921418205</v>
+        <v>-0.608143840091025</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.429840712393331</v>
+        <v>0.536351794097222</v>
       </c>
       <c r="EU3" t="n">
-        <v>1.09891750990849</v>
+        <v>0.524560577847156</v>
       </c>
       <c r="EV3" t="n">
-        <v>1.00381094917806</v>
+        <v>0.340117006922965</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.56067200884371</v>
+        <v>1.32125254293817</v>
       </c>
       <c r="EX3" t="n">
-        <v>0.301729408389257</v>
+        <v>-2.46591856957519</v>
       </c>
       <c r="EY3" t="n">
-        <v>-0.450749775641786</v>
+        <v>2.29286621065086</v>
       </c>
       <c r="EZ3" t="n">
-        <v>-1.15099660343634</v>
+        <v>-0.538410007499702</v>
       </c>
       <c r="FA3" t="n">
-        <v>0.194894701608858</v>
+        <v>0.835936481861012</v>
       </c>
       <c r="FB3" t="n">
-        <v>-0.782002569322226</v>
+        <v>-0.305393940923806</v>
       </c>
       <c r="FC3" t="n">
-        <v>-1.65403059212435</v>
+        <v>-1.06595387833778</v>
       </c>
       <c r="FD3" t="n">
-        <v>-0.302861451864768</v>
+        <v>-0.683650151891422</v>
       </c>
       <c r="FE3" t="n">
-        <v>-0.318902783648474</v>
+        <v>0.252116677463666</v>
       </c>
       <c r="FF3" t="n">
-        <v>-0.84675266651127</v>
+        <v>-0.428220457376711</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.817021262538607</v>
+        <v>-1.62530824919226</v>
       </c>
       <c r="FH3" t="n">
-        <v>1.7619301722406</v>
+        <v>-0.869698576262546</v>
       </c>
       <c r="FI3" t="n">
-        <v>-1.30143850832558</v>
+        <v>-0.694029376347792</v>
       </c>
       <c r="FJ3" t="n">
-        <v>-0.296511311463447</v>
+        <v>-0.500264108267907</v>
       </c>
       <c r="FK3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FL3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM3" t="n">
         <v>1</v>
       </c>
       <c r="FN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP3" t="n">
         <v>1</v>
       </c>
-      <c r="FO3" t="n">
+      <c r="FQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV3" t="n">
         <v>1</v>
       </c>
-      <c r="FP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT3" t="n">
+      <c r="FW3" t="n">
         <v>1</v>
       </c>
-      <c r="FU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW3" t="n">
-        <v>0</v>
-      </c>
       <c r="FX3" t="n">
         <v>0</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>0</v>
       </c>
       <c r="FZ3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GA3" t="n">
         <v>1</v>
@@ -2559,542 +2559,542 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.403219091059639</v>
+        <v>0.579975266898699</v>
       </c>
       <c r="B4" t="n">
-        <v>0.69437388953782</v>
+        <v>-0.836196341655239</v>
       </c>
       <c r="C4" t="n">
-        <v>0.328356079393724</v>
+        <v>0.599093296294151</v>
       </c>
       <c r="D4" t="n">
-        <v>0.526047727471546</v>
+        <v>0.641122045430271</v>
       </c>
       <c r="E4" t="n">
-        <v>1.78592727770018</v>
+        <v>-2.94688225096372</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.0168815049372531</v>
+        <v>-0.00258554548462075</v>
       </c>
       <c r="G4" t="n">
-        <v>1.36669525168513</v>
+        <v>0.0951961791243888</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.962785280845161</v>
+        <v>-0.519977489457342</v>
       </c>
       <c r="I4" t="n">
-        <v>0.149880920548513</v>
+        <v>-0.0222188713403346</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.162425714469264</v>
+        <v>0.22176455412669</v>
       </c>
       <c r="K4" t="n">
-        <v>0.706200432163446</v>
+        <v>-0.385276488415955</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.641338002828018</v>
+        <v>0.371404615106319</v>
       </c>
       <c r="M4" t="n">
-        <v>0.655930339090038</v>
+        <v>-1.7551584494039</v>
       </c>
       <c r="N4" t="n">
-        <v>1.13207695509199</v>
+        <v>-2.44472191667648</v>
       </c>
       <c r="O4" t="n">
-        <v>0.684664470041486</v>
+        <v>-1.09507303560402</v>
       </c>
       <c r="P4" t="n">
-        <v>-1.14071396019607</v>
+        <v>-0.907506690215787</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.846416227916208</v>
+        <v>0.252526078821719</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.640447039450022</v>
+        <v>-1.08036114469686</v>
       </c>
       <c r="S4" t="n">
-        <v>0.34805646403374</v>
+        <v>-0.230869629129728</v>
       </c>
       <c r="T4" t="n">
-        <v>0.789769472699721</v>
+        <v>-0.720622538527475</v>
       </c>
       <c r="U4" t="n">
-        <v>1.2454749333927</v>
+        <v>-0.612692036742103</v>
       </c>
       <c r="V4" t="n">
-        <v>0.532931334914495</v>
+        <v>0.870192147760483</v>
       </c>
       <c r="W4" t="n">
-        <v>1.67123712035135</v>
+        <v>-1.85367142568458</v>
       </c>
       <c r="X4" t="n">
-        <v>1.09734085860971</v>
+        <v>0.0922265709135896</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.296003558448976</v>
+        <v>-0.628380411333457</v>
       </c>
       <c r="Z4" t="n">
-        <v>-1.15664419497456</v>
+        <v>0.943112832683308</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0.266972630806781</v>
+        <v>-0.0530015006050842</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.269642177206169</v>
+        <v>0.33535289525871</v>
       </c>
       <c r="AC4" t="n">
-        <v>-1.14866836750735</v>
+        <v>-1.44564956465753</v>
       </c>
       <c r="AD4" t="n">
-        <v>-1.28624991498406</v>
+        <v>0.922184465194365</v>
       </c>
       <c r="AE4" t="n">
-        <v>-1.15243843986657</v>
+        <v>0.915630895440389</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.852249105621667</v>
+        <v>1.40248824388088</v>
       </c>
       <c r="AG4" t="n">
-        <v>-0.112935814617916</v>
+        <v>1.01452441847626</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.272591236221937</v>
+        <v>-0.383377361684879</v>
       </c>
       <c r="AI4" t="n">
-        <v>-1.42851510958848</v>
+        <v>0.188201484054055</v>
       </c>
       <c r="AJ4" t="n">
-        <v>-0.935703039918378</v>
+        <v>-0.875356685771395</v>
       </c>
       <c r="AK4" t="n">
-        <v>-0.379222245970652</v>
+        <v>-0.765162793153966</v>
       </c>
       <c r="AL4" t="n">
-        <v>2.02851711052097</v>
+        <v>-0.0432329240779925</v>
       </c>
       <c r="AM4" t="n">
-        <v>-0.149623317931864</v>
+        <v>-1.147844303106</v>
       </c>
       <c r="AN4" t="n">
-        <v>-0.592704455551694</v>
+        <v>0.116654183653545</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.177256966325586</v>
+        <v>-1.43902994364389</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.67773769830288</v>
+        <v>-0.613287006928257</v>
       </c>
       <c r="AQ4" t="n">
-        <v>-0.371144098615254</v>
+        <v>1.38173523668409</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.0181196896346194</v>
+        <v>-0.873658514807484</v>
       </c>
       <c r="AS4" t="n">
-        <v>-1.30471150268975</v>
+        <v>-1.12354164737411</v>
       </c>
       <c r="AT4" t="n">
-        <v>-1.38151532012089</v>
+        <v>-0.914275177171774</v>
       </c>
       <c r="AU4" t="n">
-        <v>-1.10650795983303</v>
+        <v>-0.880062355353365</v>
       </c>
       <c r="AV4" t="n">
-        <v>1.3725401081102</v>
+        <v>0.238503226805374</v>
       </c>
       <c r="AW4" t="n">
-        <v>-0.986551468981189</v>
+        <v>0.358601860901075</v>
       </c>
       <c r="AX4" t="n">
-        <v>-0.504666216935874</v>
+        <v>1.9658903938725</v>
       </c>
       <c r="AY4" t="n">
-        <v>-0.608004609907076</v>
+        <v>-0.32790265612454</v>
       </c>
       <c r="AZ4" t="n">
-        <v>-0.0816322585137585</v>
+        <v>-0.702165972604644</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.348772659871457</v>
+        <v>-0.434739350349885</v>
       </c>
       <c r="BB4" t="n">
-        <v>-0.73848961050957</v>
+        <v>0.147195946979453</v>
       </c>
       <c r="BC4" t="n">
-        <v>-2.00084869531841</v>
+        <v>-0.974296941993016</v>
       </c>
       <c r="BD4" t="n">
-        <v>-0.18961252312343</v>
+        <v>-0.227900605921778</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.321607957520131</v>
+        <v>2.46629645778674</v>
       </c>
       <c r="BF4" t="n">
-        <v>1.2946210022365</v>
+        <v>-0.832353494769996</v>
       </c>
       <c r="BG4" t="n">
-        <v>-1.45014609139325</v>
+        <v>-0.00114133388066147</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.833357607570259</v>
+        <v>-0.268096883659684</v>
       </c>
       <c r="BI4" t="n">
-        <v>-0.16632898791488</v>
+        <v>-1.90770994470728</v>
       </c>
       <c r="BJ4" t="n">
-        <v>-0.0461286252378767</v>
+        <v>-2.05107264434467</v>
       </c>
       <c r="BK4" t="n">
-        <v>-0.394859473803637</v>
+        <v>0.27108955365649</v>
       </c>
       <c r="BL4" t="n">
-        <v>-0.161827609277185</v>
+        <v>0.249184682520779</v>
       </c>
       <c r="BM4" t="n">
-        <v>-1.21015510450623</v>
+        <v>0.378744895822558</v>
       </c>
       <c r="BN4" t="n">
-        <v>-0.900269610624328</v>
+        <v>1.15793756763269</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.776432573627781</v>
+        <v>-0.507304060151007</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.222123558697613</v>
+        <v>-0.597104784533281</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.231347404615415</v>
+        <v>0.828097231070116</v>
       </c>
       <c r="BR4" t="n">
-        <v>1.40192859556824</v>
+        <v>0.80603380478034</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.159883488492054</v>
+        <v>-0.421484550135212</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.864441504877535</v>
+        <v>0.494493089018498</v>
       </c>
       <c r="BU4" t="n">
-        <v>1.14859508737795</v>
+        <v>2.89188704470991</v>
       </c>
       <c r="BV4" t="n">
-        <v>0.413497939316325</v>
+        <v>-0.0360803769164538</v>
       </c>
       <c r="BW4" t="n">
-        <v>-1.28765526940909</v>
+        <v>1.0032019893492</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.960255283457137</v>
+        <v>0.836174031080568</v>
       </c>
       <c r="BY4" t="n">
-        <v>-0.651323088343115</v>
+        <v>0.106999579392184</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.460282138702411</v>
+        <v>0.82161385005402</v>
       </c>
       <c r="CA4" t="n">
-        <v>1.36479815164859</v>
+        <v>0.139859125118024</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.248455165374885</v>
+        <v>1.81054710805108</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.90933574025835</v>
+        <v>1.07021154727744</v>
       </c>
       <c r="CD4" t="n">
-        <v>-0.023015731044409</v>
+        <v>-0.0342250573787849</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.506193090410602</v>
+        <v>0.826616663679831</v>
       </c>
       <c r="CF4" t="n">
-        <v>-1.39127777460524</v>
+        <v>-0.00900389340524203</v>
       </c>
       <c r="CG4" t="n">
-        <v>-0.439743463226096</v>
+        <v>0.55113250231614</v>
       </c>
       <c r="CH4" t="n">
-        <v>2.37715879622653</v>
+        <v>1.14316286150286</v>
       </c>
       <c r="CI4" t="n">
-        <v>0.150361660029009</v>
+        <v>-1.54866701631006</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0.268620015339313</v>
+        <v>0.35789525378686</v>
       </c>
       <c r="CK4" t="n">
-        <v>1.15727125943779</v>
+        <v>0.781976649339446</v>
       </c>
       <c r="CL4" t="n">
-        <v>0.406560259804345</v>
+        <v>-0.642374638080164</v>
       </c>
       <c r="CM4" t="n">
-        <v>-0.538441667253054</v>
+        <v>0.372127150249954</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.523564641130004</v>
+        <v>-0.162063561481818</v>
       </c>
       <c r="CO4" t="n">
-        <v>1.15149531605964</v>
+        <v>0.115523251455304</v>
       </c>
       <c r="CP4" t="n">
-        <v>0.340412743774107</v>
+        <v>1.90092987486089</v>
       </c>
       <c r="CQ4" t="n">
-        <v>-1.69718913741504</v>
+        <v>-1.95765030495847</v>
       </c>
       <c r="CR4" t="n">
-        <v>1.09493775772054</v>
+        <v>1.18307046971456</v>
       </c>
       <c r="CS4" t="n">
-        <v>-0.381828521978451</v>
+        <v>1.40903837805785</v>
       </c>
       <c r="CT4" t="n">
-        <v>-0.958830733110454</v>
+        <v>-0.597986706408395</v>
       </c>
       <c r="CU4" t="n">
-        <v>1.14975551644773</v>
+        <v>0.303133614418268</v>
       </c>
       <c r="CV4" t="n">
-        <v>-1.03553434208162</v>
+        <v>-0.082367574658474</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.622293550405047</v>
+        <v>-0.314149742617304</v>
       </c>
       <c r="CX4" t="n">
-        <v>-0.619332812947786</v>
+        <v>-2.20849741843583</v>
       </c>
       <c r="CY4" t="n">
-        <v>1.37048195857118</v>
+        <v>1.56891639562197</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.650373366919673</v>
+        <v>0.00886424639288223</v>
       </c>
       <c r="DA4" t="n">
-        <v>1.33426635185362</v>
+        <v>1.64338130473483</v>
       </c>
       <c r="DB4" t="n">
-        <v>-0.561366438188404</v>
+        <v>-0.0552277505382644</v>
       </c>
       <c r="DC4" t="n">
-        <v>-1.74869948782323</v>
+        <v>-1.75774430022077</v>
       </c>
       <c r="DD4" t="n">
-        <v>0.437046729142294</v>
+        <v>-0.30556978044094</v>
       </c>
       <c r="DE4" t="n">
-        <v>-0.612787821335503</v>
+        <v>0.90479228628969</v>
       </c>
       <c r="DF4" t="n">
-        <v>2.06612932670355</v>
+        <v>-0.169406881803974</v>
       </c>
       <c r="DG4" t="n">
-        <v>-1.21704843565056</v>
+        <v>0.247211986963014</v>
       </c>
       <c r="DH4" t="n">
-        <v>-0.98069802649725</v>
+        <v>-0.531430539412127</v>
       </c>
       <c r="DI4" t="n">
-        <v>1.94300092139468</v>
+        <v>1.00033861869214</v>
       </c>
       <c r="DJ4" t="n">
-        <v>-0.949038984831564</v>
+        <v>1.97225491042664</v>
       </c>
       <c r="DK4" t="n">
-        <v>0.532422496753999</v>
+        <v>0.997375312959604</v>
       </c>
       <c r="DL4" t="n">
-        <v>-0.407266379021439</v>
+        <v>-0.487353734894808</v>
       </c>
       <c r="DM4" t="n">
-        <v>-0.0368199553748023</v>
+        <v>-0.80573362500093</v>
       </c>
       <c r="DN4" t="n">
-        <v>1.07812312115393</v>
+        <v>-0.365281557037727</v>
       </c>
       <c r="DO4" t="n">
-        <v>-0.0229447365558929</v>
+        <v>1.28680946695886</v>
       </c>
       <c r="DP4" t="n">
-        <v>1.63824642523396</v>
+        <v>-2.01326296554046</v>
       </c>
       <c r="DQ4" t="n">
-        <v>-0.485420483692261</v>
+        <v>-0.934502355674558</v>
       </c>
       <c r="DR4" t="n">
-        <v>-1.38716978835341</v>
+        <v>-0.286614611341324</v>
       </c>
       <c r="DS4" t="n">
-        <v>-0.140411251326383</v>
+        <v>0.0745388538140937</v>
       </c>
       <c r="DT4" t="n">
-        <v>-1.26908858136245</v>
+        <v>-0.189396097899429</v>
       </c>
       <c r="DU4" t="n">
-        <v>0.0877986024624512</v>
+        <v>-1.16024077152744</v>
       </c>
       <c r="DV4" t="n">
-        <v>-0.510666116915923</v>
+        <v>-0.148905378354393</v>
       </c>
       <c r="DW4" t="n">
-        <v>-0.426084625866753</v>
+        <v>1.48851438308517</v>
       </c>
       <c r="DX4" t="n">
-        <v>0.448412855474234</v>
+        <v>0.340953472333767</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.200554082492798</v>
+        <v>-0.156585790343576</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.310807148596698</v>
+        <v>0.513298480628859</v>
       </c>
       <c r="EA4" t="n">
-        <v>-0.118683974020954</v>
+        <v>-1.4965890698824</v>
       </c>
       <c r="EB4" t="n">
-        <v>0.495790815733676</v>
+        <v>1.39809323445896</v>
       </c>
       <c r="EC4" t="n">
-        <v>-0.728569240403478</v>
+        <v>0.301792048969663</v>
       </c>
       <c r="ED4" t="n">
-        <v>1.49770208387512</v>
+        <v>-1.94026123187258</v>
       </c>
       <c r="EE4" t="n">
-        <v>-0.808178573742124</v>
+        <v>0.101143429466976</v>
       </c>
       <c r="EF4" t="n">
-        <v>-0.338074062445445</v>
+        <v>-0.774690684385199</v>
       </c>
       <c r="EG4" t="n">
-        <v>-0.205991625113621</v>
+        <v>0.583301752499506</v>
       </c>
       <c r="EH4" t="n">
-        <v>-1.40518387813248</v>
+        <v>1.45122230133759</v>
       </c>
       <c r="EI4" t="n">
-        <v>-0.353112763236432</v>
+        <v>-1.27328437458878</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1.97151242823901</v>
+        <v>-1.11781342160443</v>
       </c>
       <c r="EK4" t="n">
-        <v>1.00352881151389</v>
+        <v>0.953521651511918</v>
       </c>
       <c r="EL4" t="n">
-        <v>0.48517217557707</v>
+        <v>2.23164413510473</v>
       </c>
       <c r="EM4" t="n">
-        <v>0.328602018123105</v>
+        <v>-0.154008742768338</v>
       </c>
       <c r="EN4" t="n">
-        <v>0.0045373459556849</v>
+        <v>-0.480104652827624</v>
       </c>
       <c r="EO4" t="n">
-        <v>1.4910963756431</v>
+        <v>2.10382696962435</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.141141312068252</v>
+        <v>0.154146856678564</v>
       </c>
       <c r="EQ4" t="n">
-        <v>-1.18443074768626</v>
+        <v>-0.0530117866751405</v>
       </c>
       <c r="ER4" t="n">
-        <v>0.759724618157534</v>
+        <v>-1.70110629763358</v>
       </c>
       <c r="ES4" t="n">
-        <v>1.67945921418205</v>
+        <v>-0.608143840091025</v>
       </c>
       <c r="ET4" t="n">
-        <v>0.429840712393331</v>
+        <v>0.536351794097222</v>
       </c>
       <c r="EU4" t="n">
-        <v>1.09891750990849</v>
+        <v>0.524560577847156</v>
       </c>
       <c r="EV4" t="n">
-        <v>1.00381094917806</v>
+        <v>0.340117006922965</v>
       </c>
       <c r="EW4" t="n">
-        <v>0.56067200884371</v>
+        <v>1.32125254293817</v>
       </c>
       <c r="EX4" t="n">
-        <v>0.301729408389257</v>
+        <v>-2.46591856957519</v>
       </c>
       <c r="EY4" t="n">
-        <v>-0.450749775641786</v>
+        <v>2.29286621065086</v>
       </c>
       <c r="EZ4" t="n">
-        <v>-1.15099660343634</v>
+        <v>-0.538410007499702</v>
       </c>
       <c r="FA4" t="n">
-        <v>0.194894701608858</v>
+        <v>0.835936481861012</v>
       </c>
       <c r="FB4" t="n">
-        <v>-0.782002569322226</v>
+        <v>-0.305393940923806</v>
       </c>
       <c r="FC4" t="n">
-        <v>-1.65403059212435</v>
+        <v>-1.06595387833778</v>
       </c>
       <c r="FD4" t="n">
-        <v>-0.302861451864768</v>
+        <v>-0.683650151891422</v>
       </c>
       <c r="FE4" t="n">
-        <v>-0.318902783648474</v>
+        <v>0.252116677463666</v>
       </c>
       <c r="FF4" t="n">
-        <v>-0.84675266651127</v>
+        <v>-0.428220457376711</v>
       </c>
       <c r="FG4" t="n">
-        <v>0.817021262538607</v>
+        <v>-1.62530824919226</v>
       </c>
       <c r="FH4" t="n">
-        <v>1.7619301722406</v>
+        <v>-0.869698576262546</v>
       </c>
       <c r="FI4" t="n">
-        <v>-1.30143850832558</v>
+        <v>-0.694029376347792</v>
       </c>
       <c r="FJ4" t="n">
-        <v>-0.296511311463447</v>
+        <v>-0.500264108267907</v>
       </c>
       <c r="FK4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FL4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM4" t="n">
         <v>1</v>
       </c>
       <c r="FN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP4" t="n">
         <v>1</v>
       </c>
-      <c r="FO4" t="n">
+      <c r="FQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV4" t="n">
         <v>1</v>
       </c>
-      <c r="FP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT4" t="n">
+      <c r="FW4" t="n">
         <v>1</v>
       </c>
-      <c r="FU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW4" t="n">
-        <v>0</v>
-      </c>
       <c r="FX4" t="n">
         <v>0</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="FZ4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GA4" t="n">
         <v>1</v>

--- a/file_checks/dataset_wrong_genes_correct_pheno.xlsx
+++ b/file_checks/dataset_wrong_genes_correct_pheno.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="187">
   <si>
     <t xml:space="preserve">1</t>
   </si>
@@ -561,6 +561,15 @@
   </si>
   <si>
     <t xml:space="preserve">rorS_risk_high</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ER_hp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ER_lp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HER2_scmod1</t>
   </si>
   <si>
     <t xml:space="preserve">Endo</t>
@@ -1448,505 +1457,514 @@
       <c r="GB1" t="s">
         <v>183</v>
       </c>
+      <c r="GC1" t="s">
+        <v>184</v>
+      </c>
+      <c r="GD1" t="s">
+        <v>185</v>
+      </c>
+      <c r="GE1" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.579975266898699</v>
+        <v>0.0291021885929026</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.836196341655239</v>
+        <v>-0.187467250070358</v>
       </c>
       <c r="C2" t="n">
-        <v>0.599093296294151</v>
+        <v>-0.524563555646364</v>
       </c>
       <c r="D2" t="n">
-        <v>0.641122045430271</v>
+        <v>2.67981540882791</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.94688225096372</v>
+        <v>1.14898100989251</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.00258554548462075</v>
+        <v>-0.657297590102655</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0951961791243888</v>
+        <v>0.377733058868199</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.519977489457342</v>
+        <v>0.533379107131799</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0222188713403346</v>
+        <v>-0.828937632784198</v>
       </c>
       <c r="J2" t="n">
-        <v>0.22176455412669</v>
+        <v>-0.510216466219332</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.385276488415955</v>
+        <v>-0.71985952430109</v>
       </c>
       <c r="L2" t="n">
-        <v>0.371404615106319</v>
+        <v>1.12553638364443</v>
       </c>
       <c r="M2" t="n">
-        <v>-1.7551584494039</v>
+        <v>0.0966595479433467</v>
       </c>
       <c r="N2" t="n">
-        <v>-2.44472191667648</v>
+        <v>0.118212660197326</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.09507303560402</v>
+        <v>-0.23205828241546</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.907506690215787</v>
+        <v>0.133468880722265</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.252526078821719</v>
+        <v>-0.048443495022137</v>
       </c>
       <c r="R2" t="n">
-        <v>-1.08036114469686</v>
+        <v>-1.30336845208548</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.230869629129728</v>
+        <v>0.602457069073266</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.720622538527475</v>
+        <v>-0.595616398440225</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.612692036742103</v>
+        <v>0.30697049876985</v>
       </c>
       <c r="V2" t="n">
-        <v>0.870192147760483</v>
+        <v>-1.17337719174624</v>
       </c>
       <c r="W2" t="n">
-        <v>-1.85367142568458</v>
+        <v>-0.180284882759816</v>
       </c>
       <c r="X2" t="n">
-        <v>0.0922265709135896</v>
+        <v>0.458567918851705</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.628380411333457</v>
+        <v>1.96209186697259</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.943112832683308</v>
+        <v>-1.51164592756375</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.0530015006050842</v>
+        <v>-0.86342415791035</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.33535289525871</v>
+        <v>-0.797559005864488</v>
       </c>
       <c r="AC2" t="n">
-        <v>-1.44564956465753</v>
+        <v>-0.642148957222401</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.922184465194365</v>
+        <v>1.58782553593688</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.915630895440389</v>
+        <v>1.16163253796547</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.40248824388088</v>
+        <v>1.5015983943004</v>
       </c>
       <c r="AG2" t="n">
-        <v>1.01452441847626</v>
+        <v>-0.0167997265040032</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.383377361684879</v>
+        <v>-0.406044754892063</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.188201484054055</v>
+        <v>-0.818448753164727</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.875356685771395</v>
+        <v>-0.0601988315423066</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.765162793153966</v>
+        <v>-0.957778825063958</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.0432329240779925</v>
+        <v>0.856599580823971</v>
       </c>
       <c r="AM2" t="n">
-        <v>-1.147844303106</v>
+        <v>1.01186856908426</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.116654183653545</v>
+        <v>0.0145058487490362</v>
       </c>
       <c r="AO2" t="n">
-        <v>-1.43902994364389</v>
+        <v>0.393952882847004</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.613287006928257</v>
+        <v>-0.752260866514854</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.38173523668409</v>
+        <v>0.20521596660037</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.873658514807484</v>
+        <v>-1.45820810072711</v>
       </c>
       <c r="AS2" t="n">
-        <v>-1.12354164737411</v>
+        <v>0.483662658202089</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.914275177171774</v>
+        <v>0.736691333375208</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.880062355353365</v>
+        <v>2.46854040348094</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.238503226805374</v>
+        <v>-0.272489796142487</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.358601860901075</v>
+        <v>-0.396059668402682</v>
       </c>
       <c r="AX2" t="n">
-        <v>1.9658903938725</v>
+        <v>-0.689727131076461</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0.32790265612454</v>
+        <v>-1.93359704920219</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.702165972604644</v>
+        <v>0.815326385931089</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.434739350349885</v>
+        <v>0.763925034480556</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.147195946979453</v>
+        <v>-0.322882975366675</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.974296941993016</v>
+        <v>-0.953561907103362</v>
       </c>
       <c r="BD2" t="n">
-        <v>-0.227900605921778</v>
+        <v>-0.862965938583339</v>
       </c>
       <c r="BE2" t="n">
-        <v>2.46629645778674</v>
+        <v>1.46243054656183</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0.832353494769996</v>
+        <v>-0.326530312730801</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.00114133388066147</v>
+        <v>-0.793587624949719</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0.268096883659684</v>
+        <v>-0.187002429754615</v>
       </c>
       <c r="BI2" t="n">
-        <v>-1.90770994470728</v>
+        <v>0.0808345760915391</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-2.05107264434467</v>
+        <v>0.806370441076428</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.27108955365649</v>
+        <v>-0.713626284348292</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.249184682520779</v>
+        <v>-0.983417864621186</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.378744895822558</v>
+        <v>-1.43445046818451</v>
       </c>
       <c r="BN2" t="n">
-        <v>1.15793756763269</v>
+        <v>-0.416369489635166</v>
       </c>
       <c r="BO2" t="n">
-        <v>-0.507304060151007</v>
+        <v>-0.56034112928169</v>
       </c>
       <c r="BP2" t="n">
-        <v>-0.597104784533281</v>
+        <v>-1.9979200606806</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.828097231070116</v>
+        <v>0.59246158978681</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.80603380478034</v>
+        <v>0.904491605683951</v>
       </c>
       <c r="BS2" t="n">
-        <v>-0.421484550135212</v>
+        <v>0.228048462952152</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.494493089018498</v>
+        <v>1.00781579575924</v>
       </c>
       <c r="BU2" t="n">
-        <v>2.89188704470991</v>
+        <v>0.918797249580216</v>
       </c>
       <c r="BV2" t="n">
-        <v>-0.0360803769164538</v>
+        <v>-0.265259909450116</v>
       </c>
       <c r="BW2" t="n">
-        <v>1.0032019893492</v>
+        <v>0.940941596746667</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.836174031080568</v>
+        <v>-2.09905996748553</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.106999579392184</v>
+        <v>0.252931547087331</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.82161385005402</v>
+        <v>-0.0742734590163371</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.139859125118024</v>
+        <v>1.150683904469</v>
       </c>
       <c r="CB2" t="n">
-        <v>1.81054710805108</v>
+        <v>0.150892596780629</v>
       </c>
       <c r="CC2" t="n">
-        <v>1.07021154727744</v>
+        <v>-0.206097929312639</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.0342250573787849</v>
+        <v>1.61121099767614</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.826616663679831</v>
+        <v>-1.18383802256387</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.00900389340524203</v>
+        <v>-0.353650616602278</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.55113250231614</v>
+        <v>-1.10089939755812</v>
       </c>
       <c r="CH2" t="n">
-        <v>1.14316286150286</v>
+        <v>1.1885525307418</v>
       </c>
       <c r="CI2" t="n">
-        <v>-1.54866701631006</v>
+        <v>-1.9121017592932</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.35789525378686</v>
+        <v>0.113132933465991</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.781976649339446</v>
+        <v>0.61616552054814</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0.642374638080164</v>
+        <v>1.0839528319249</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.372127150249954</v>
+        <v>-0.572126141038828</v>
       </c>
       <c r="CN2" t="n">
-        <v>-0.162063561481818</v>
+        <v>-0.694612364744575</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.115523251455304</v>
+        <v>0.0589140354595188</v>
       </c>
       <c r="CP2" t="n">
-        <v>1.90092987486089</v>
+        <v>-1.16938794542862</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-1.95765030495847</v>
+        <v>0.0142965964144351</v>
       </c>
       <c r="CR2" t="n">
-        <v>1.18307046971456</v>
+        <v>-0.122345413260785</v>
       </c>
       <c r="CS2" t="n">
-        <v>1.40903837805785</v>
+        <v>0.00316043387132161</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0.597986706408395</v>
+        <v>0.269302089001132</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.303133614418268</v>
+        <v>-0.22060373964861</v>
       </c>
       <c r="CV2" t="n">
-        <v>-0.082367574658474</v>
+        <v>-0.0642734594995518</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0.314149742617304</v>
+        <v>0.363088773140158</v>
       </c>
       <c r="CX2" t="n">
-        <v>-2.20849741843583</v>
+        <v>0.221716165264753</v>
       </c>
       <c r="CY2" t="n">
-        <v>1.56891639562197</v>
+        <v>-1.14233798343846</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.00886424639288223</v>
+        <v>-0.217353349290512</v>
       </c>
       <c r="DA2" t="n">
-        <v>1.64338130473483</v>
+        <v>-0.159347557754572</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0.0552277505382644</v>
+        <v>-1.17080870198588</v>
       </c>
       <c r="DC2" t="n">
-        <v>-1.75774430022077</v>
+        <v>1.08972027501259</v>
       </c>
       <c r="DD2" t="n">
-        <v>-0.30556978044094</v>
+        <v>0.0781679718526781</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.90479228628969</v>
+        <v>-0.531918722928509</v>
       </c>
       <c r="DF2" t="n">
-        <v>-0.169406881803974</v>
+        <v>-1.11440780199853</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.247211986963014</v>
+        <v>-2.72037271040328</v>
       </c>
       <c r="DH2" t="n">
-        <v>-0.531430539412127</v>
+        <v>0.498369553291584</v>
       </c>
       <c r="DI2" t="n">
-        <v>1.00033861869214</v>
+        <v>1.32773666322897</v>
       </c>
       <c r="DJ2" t="n">
-        <v>1.97225491042664</v>
+        <v>0.0184640191689905</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.997375312959604</v>
+        <v>-1.62751535604635</v>
       </c>
       <c r="DL2" t="n">
-        <v>-0.487353734894808</v>
+        <v>-0.455828251202351</v>
       </c>
       <c r="DM2" t="n">
-        <v>-0.80573362500093</v>
+        <v>1.5490284104459</v>
       </c>
       <c r="DN2" t="n">
-        <v>-0.365281557037727</v>
+        <v>-0.321943120257276</v>
       </c>
       <c r="DO2" t="n">
-        <v>1.28680946695886</v>
+        <v>0.637804417150799</v>
       </c>
       <c r="DP2" t="n">
-        <v>-2.01326296554046</v>
+        <v>0.862040462825464</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0.934502355674558</v>
+        <v>-0.06772255012198</v>
       </c>
       <c r="DR2" t="n">
-        <v>-0.286614611341324</v>
+        <v>-0.492640372513537</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.0745388538140937</v>
+        <v>0.761660368961171</v>
       </c>
       <c r="DT2" t="n">
-        <v>-0.189396097899429</v>
+        <v>-0.69402969396705</v>
       </c>
       <c r="DU2" t="n">
-        <v>-1.16024077152744</v>
+        <v>0.414220410213826</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.148905378354393</v>
+        <v>-1.89371331172106</v>
       </c>
       <c r="DW2" t="n">
-        <v>1.48851438308517</v>
+        <v>-1.17081353559205</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.340953472333767</v>
+        <v>-1.65395057484538</v>
       </c>
       <c r="DY2" t="n">
-        <v>-0.156585790343576</v>
+        <v>-0.286690793906981</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.513298480628859</v>
+        <v>-0.347486276478087</v>
       </c>
       <c r="EA2" t="n">
-        <v>-1.4965890698824</v>
+        <v>1.21736175727997</v>
       </c>
       <c r="EB2" t="n">
-        <v>1.39809323445896</v>
+        <v>1.39288354592942</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.301792048969663</v>
+        <v>-0.0304861845747724</v>
       </c>
       <c r="ED2" t="n">
-        <v>-1.94026123187258</v>
+        <v>-1.69181129661368</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.101143429466976</v>
+        <v>0.882950314916038</v>
       </c>
       <c r="EF2" t="n">
-        <v>-0.774690684385199</v>
+        <v>0.243390413537467</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.583301752499506</v>
+        <v>-0.187364378782289</v>
       </c>
       <c r="EH2" t="n">
-        <v>1.45122230133759</v>
+        <v>-0.968750030629317</v>
       </c>
       <c r="EI2" t="n">
-        <v>-1.27328437458878</v>
+        <v>0.401668740706801</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-1.11781342160443</v>
+        <v>-0.570351793977554</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.953521651511918</v>
+        <v>1.03792013082633</v>
       </c>
       <c r="EL2" t="n">
-        <v>2.23164413510473</v>
+        <v>-0.487729406115351</v>
       </c>
       <c r="EM2" t="n">
-        <v>-0.154008742768338</v>
+        <v>1.17205473585938</v>
       </c>
       <c r="EN2" t="n">
-        <v>-0.480104652827624</v>
+        <v>1.41916052353407</v>
       </c>
       <c r="EO2" t="n">
-        <v>2.10382696962435</v>
+        <v>0.269429996800802</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.154146856678564</v>
+        <v>1.5206923554915</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-0.0530117866751405</v>
+        <v>-0.109001340225221</v>
       </c>
       <c r="ER2" t="n">
-        <v>-1.70110629763358</v>
+        <v>1.00573967804933</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.608143840091025</v>
+        <v>-0.944450790701732</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.536351794097222</v>
+        <v>0.642047597070607</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.524560577847156</v>
+        <v>1.31363701674097</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.340117006922965</v>
+        <v>0.189510675723656</v>
       </c>
       <c r="EW2" t="n">
-        <v>1.32125254293817</v>
+        <v>0.849962393311045</v>
       </c>
       <c r="EX2" t="n">
-        <v>-2.46591856957519</v>
+        <v>-1.8689831477019</v>
       </c>
       <c r="EY2" t="n">
-        <v>2.29286621065086</v>
+        <v>-1.41971061296785</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0.538410007499702</v>
+        <v>-0.82056157447286</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.835936481861012</v>
+        <v>1.36619495600301</v>
       </c>
       <c r="FB2" t="n">
-        <v>-0.305393940923806</v>
+        <v>0.30798101440127</v>
       </c>
       <c r="FC2" t="n">
-        <v>-1.06595387833778</v>
+        <v>1.6826224922036</v>
       </c>
       <c r="FD2" t="n">
-        <v>-0.683650151891422</v>
+        <v>0.815839311664332</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.252116677463666</v>
+        <v>-0.851893509516883</v>
       </c>
       <c r="FF2" t="n">
-        <v>-0.428220457376711</v>
+        <v>-0.177770953275109</v>
       </c>
       <c r="FG2" t="n">
-        <v>-1.62530824919226</v>
+        <v>1.87342110538326</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.869698576262546</v>
+        <v>1.82043028573023</v>
       </c>
       <c r="FI2" t="n">
-        <v>-0.694029376347792</v>
+        <v>-0.716149986339407</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-0.500264108267907</v>
+        <v>0.914224701986364</v>
       </c>
       <c r="FK2" t="n">
         <v>1</v>
@@ -1970,19 +1988,19 @@
         <v>0</v>
       </c>
       <c r="FR2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FS2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FT2" t="n">
         <v>0</v>
       </c>
       <c r="FU2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FV2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FW2" t="n">
         <v>1</v>
@@ -1997,510 +2015,519 @@
         <v>0</v>
       </c>
       <c r="GA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD2" t="n">
         <v>1</v>
       </c>
-      <c r="GB2" t="n">
-        <v>1</v>
+      <c r="GE2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.579975266898699</v>
+        <v>0.0291021885929026</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.836196341655239</v>
+        <v>-0.187467250070358</v>
       </c>
       <c r="C3" t="n">
-        <v>0.599093296294151</v>
+        <v>-0.524563555646364</v>
       </c>
       <c r="D3" t="n">
-        <v>0.641122045430271</v>
+        <v>2.67981540882791</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.94688225096372</v>
+        <v>1.14898100989251</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.00258554548462075</v>
+        <v>-0.657297590102655</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0951961791243888</v>
+        <v>0.377733058868199</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.519977489457342</v>
+        <v>0.533379107131799</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.0222188713403346</v>
+        <v>-0.828937632784198</v>
       </c>
       <c r="J3" t="n">
-        <v>0.22176455412669</v>
+        <v>-0.510216466219332</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.385276488415955</v>
+        <v>-0.71985952430109</v>
       </c>
       <c r="L3" t="n">
-        <v>0.371404615106319</v>
+        <v>1.12553638364443</v>
       </c>
       <c r="M3" t="n">
-        <v>-1.7551584494039</v>
+        <v>0.0966595479433467</v>
       </c>
       <c r="N3" t="n">
-        <v>-2.44472191667648</v>
+        <v>0.118212660197326</v>
       </c>
       <c r="O3" t="n">
-        <v>-1.09507303560402</v>
+        <v>-0.23205828241546</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.907506690215787</v>
+        <v>0.133468880722265</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.252526078821719</v>
+        <v>-0.048443495022137</v>
       </c>
       <c r="R3" t="n">
-        <v>-1.08036114469686</v>
+        <v>-1.30336845208548</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.230869629129728</v>
+        <v>0.602457069073266</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.720622538527475</v>
+        <v>-0.595616398440225</v>
       </c>
       <c r="U3" t="n">
-        <v>-0.612692036742103</v>
+        <v>0.30697049876985</v>
       </c>
       <c r="V3" t="n">
-        <v>0.870192147760483</v>
+        <v>-1.17337719174624</v>
       </c>
       <c r="W3" t="n">
-        <v>-1.85367142568458</v>
+        <v>-0.180284882759816</v>
       </c>
       <c r="X3" t="n">
-        <v>0.0922265709135896</v>
+        <v>0.458567918851705</v>
       </c>
       <c r="Y3" t="n">
-        <v>-0.628380411333457</v>
+        <v>1.96209186697259</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.943112832683308</v>
+        <v>-1.51164592756375</v>
       </c>
       <c r="AA3" t="n">
-        <v>-0.0530015006050842</v>
+        <v>-0.86342415791035</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.33535289525871</v>
+        <v>-0.797559005864488</v>
       </c>
       <c r="AC3" t="n">
-        <v>-1.44564956465753</v>
+        <v>-0.642148957222401</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.922184465194365</v>
+        <v>1.58782553593688</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.915630895440389</v>
+        <v>1.16163253796547</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.40248824388088</v>
+        <v>1.5015983943004</v>
       </c>
       <c r="AG3" t="n">
-        <v>1.01452441847626</v>
+        <v>-0.0167997265040032</v>
       </c>
       <c r="AH3" t="n">
-        <v>-0.383377361684879</v>
+        <v>-0.406044754892063</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.188201484054055</v>
+        <v>-0.818448753164727</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-0.875356685771395</v>
+        <v>-0.0601988315423066</v>
       </c>
       <c r="AK3" t="n">
-        <v>-0.765162793153966</v>
+        <v>-0.957778825063958</v>
       </c>
       <c r="AL3" t="n">
-        <v>-0.0432329240779925</v>
+        <v>0.856599580823971</v>
       </c>
       <c r="AM3" t="n">
-        <v>-1.147844303106</v>
+        <v>1.01186856908426</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.116654183653545</v>
+        <v>0.0145058487490362</v>
       </c>
       <c r="AO3" t="n">
-        <v>-1.43902994364389</v>
+        <v>0.393952882847004</v>
       </c>
       <c r="AP3" t="n">
-        <v>-0.613287006928257</v>
+        <v>-0.752260866514854</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.38173523668409</v>
+        <v>0.20521596660037</v>
       </c>
       <c r="AR3" t="n">
-        <v>-0.873658514807484</v>
+        <v>-1.45820810072711</v>
       </c>
       <c r="AS3" t="n">
-        <v>-1.12354164737411</v>
+        <v>0.483662658202089</v>
       </c>
       <c r="AT3" t="n">
-        <v>-0.914275177171774</v>
+        <v>0.736691333375208</v>
       </c>
       <c r="AU3" t="n">
-        <v>-0.880062355353365</v>
+        <v>2.46854040348094</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.238503226805374</v>
+        <v>-0.272489796142487</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.358601860901075</v>
+        <v>-0.396059668402682</v>
       </c>
       <c r="AX3" t="n">
-        <v>1.9658903938725</v>
+        <v>-0.689727131076461</v>
       </c>
       <c r="AY3" t="n">
-        <v>-0.32790265612454</v>
+        <v>-1.93359704920219</v>
       </c>
       <c r="AZ3" t="n">
-        <v>-0.702165972604644</v>
+        <v>0.815326385931089</v>
       </c>
       <c r="BA3" t="n">
-        <v>-0.434739350349885</v>
+        <v>0.763925034480556</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.147195946979453</v>
+        <v>-0.322882975366675</v>
       </c>
       <c r="BC3" t="n">
-        <v>-0.974296941993016</v>
+        <v>-0.953561907103362</v>
       </c>
       <c r="BD3" t="n">
-        <v>-0.227900605921778</v>
+        <v>-0.862965938583339</v>
       </c>
       <c r="BE3" t="n">
-        <v>2.46629645778674</v>
+        <v>1.46243054656183</v>
       </c>
       <c r="BF3" t="n">
-        <v>-0.832353494769996</v>
+        <v>-0.326530312730801</v>
       </c>
       <c r="BG3" t="n">
-        <v>-0.00114133388066147</v>
+        <v>-0.793587624949719</v>
       </c>
       <c r="BH3" t="n">
-        <v>-0.268096883659684</v>
+        <v>-0.187002429754615</v>
       </c>
       <c r="BI3" t="n">
-        <v>-1.90770994470728</v>
+        <v>0.0808345760915391</v>
       </c>
       <c r="BJ3" t="n">
-        <v>-2.05107264434467</v>
+        <v>0.806370441076428</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.27108955365649</v>
+        <v>-0.713626284348292</v>
       </c>
       <c r="BL3" t="n">
-        <v>0.249184682520779</v>
+        <v>-0.983417864621186</v>
       </c>
       <c r="BM3" t="n">
-        <v>0.378744895822558</v>
+        <v>-1.43445046818451</v>
       </c>
       <c r="BN3" t="n">
-        <v>1.15793756763269</v>
+        <v>-0.416369489635166</v>
       </c>
       <c r="BO3" t="n">
-        <v>-0.507304060151007</v>
+        <v>-0.56034112928169</v>
       </c>
       <c r="BP3" t="n">
-        <v>-0.597104784533281</v>
+        <v>-1.9979200606806</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.828097231070116</v>
+        <v>0.59246158978681</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.80603380478034</v>
+        <v>0.904491605683951</v>
       </c>
       <c r="BS3" t="n">
-        <v>-0.421484550135212</v>
+        <v>0.228048462952152</v>
       </c>
       <c r="BT3" t="n">
-        <v>0.494493089018498</v>
+        <v>1.00781579575924</v>
       </c>
       <c r="BU3" t="n">
-        <v>2.89188704470991</v>
+        <v>0.918797249580216</v>
       </c>
       <c r="BV3" t="n">
-        <v>-0.0360803769164538</v>
+        <v>-0.265259909450116</v>
       </c>
       <c r="BW3" t="n">
-        <v>1.0032019893492</v>
+        <v>0.940941596746667</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.836174031080568</v>
+        <v>-2.09905996748553</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.106999579392184</v>
+        <v>0.252931547087331</v>
       </c>
       <c r="BZ3" t="n">
-        <v>0.82161385005402</v>
+        <v>-0.0742734590163371</v>
       </c>
       <c r="CA3" t="n">
-        <v>0.139859125118024</v>
+        <v>1.150683904469</v>
       </c>
       <c r="CB3" t="n">
-        <v>1.81054710805108</v>
+        <v>0.150892596780629</v>
       </c>
       <c r="CC3" t="n">
-        <v>1.07021154727744</v>
+        <v>-0.206097929312639</v>
       </c>
       <c r="CD3" t="n">
-        <v>-0.0342250573787849</v>
+        <v>1.61121099767614</v>
       </c>
       <c r="CE3" t="n">
-        <v>0.826616663679831</v>
+        <v>-1.18383802256387</v>
       </c>
       <c r="CF3" t="n">
-        <v>-0.00900389340524203</v>
+        <v>-0.353650616602278</v>
       </c>
       <c r="CG3" t="n">
-        <v>0.55113250231614</v>
+        <v>-1.10089939755812</v>
       </c>
       <c r="CH3" t="n">
-        <v>1.14316286150286</v>
+        <v>1.1885525307418</v>
       </c>
       <c r="CI3" t="n">
-        <v>-1.54866701631006</v>
+        <v>-1.9121017592932</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0.35789525378686</v>
+        <v>0.113132933465991</v>
       </c>
       <c r="CK3" t="n">
-        <v>0.781976649339446</v>
+        <v>0.61616552054814</v>
       </c>
       <c r="CL3" t="n">
-        <v>-0.642374638080164</v>
+        <v>1.0839528319249</v>
       </c>
       <c r="CM3" t="n">
-        <v>0.372127150249954</v>
+        <v>-0.572126141038828</v>
       </c>
       <c r="CN3" t="n">
-        <v>-0.162063561481818</v>
+        <v>-0.694612364744575</v>
       </c>
       <c r="CO3" t="n">
-        <v>0.115523251455304</v>
+        <v>0.0589140354595188</v>
       </c>
       <c r="CP3" t="n">
-        <v>1.90092987486089</v>
+        <v>-1.16938794542862</v>
       </c>
       <c r="CQ3" t="n">
-        <v>-1.95765030495847</v>
+        <v>0.0142965964144351</v>
       </c>
       <c r="CR3" t="n">
-        <v>1.18307046971456</v>
+        <v>-0.122345413260785</v>
       </c>
       <c r="CS3" t="n">
-        <v>1.40903837805785</v>
+        <v>0.00316043387132161</v>
       </c>
       <c r="CT3" t="n">
-        <v>-0.597986706408395</v>
+        <v>0.269302089001132</v>
       </c>
       <c r="CU3" t="n">
-        <v>0.303133614418268</v>
+        <v>-0.22060373964861</v>
       </c>
       <c r="CV3" t="n">
-        <v>-0.082367574658474</v>
+        <v>-0.0642734594995518</v>
       </c>
       <c r="CW3" t="n">
-        <v>-0.314149742617304</v>
+        <v>0.363088773140158</v>
       </c>
       <c r="CX3" t="n">
-        <v>-2.20849741843583</v>
+        <v>0.221716165264753</v>
       </c>
       <c r="CY3" t="n">
-        <v>1.56891639562197</v>
+        <v>-1.14233798343846</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.00886424639288223</v>
+        <v>-0.217353349290512</v>
       </c>
       <c r="DA3" t="n">
-        <v>1.64338130473483</v>
+        <v>-0.159347557754572</v>
       </c>
       <c r="DB3" t="n">
-        <v>-0.0552277505382644</v>
+        <v>-1.17080870198588</v>
       </c>
       <c r="DC3" t="n">
-        <v>-1.75774430022077</v>
+        <v>1.08972027501259</v>
       </c>
       <c r="DD3" t="n">
-        <v>-0.30556978044094</v>
+        <v>0.0781679718526781</v>
       </c>
       <c r="DE3" t="n">
-        <v>0.90479228628969</v>
+        <v>-0.531918722928509</v>
       </c>
       <c r="DF3" t="n">
-        <v>-0.169406881803974</v>
+        <v>-1.11440780199853</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.247211986963014</v>
+        <v>-2.72037271040328</v>
       </c>
       <c r="DH3" t="n">
-        <v>-0.531430539412127</v>
+        <v>0.498369553291584</v>
       </c>
       <c r="DI3" t="n">
-        <v>1.00033861869214</v>
+        <v>1.32773666322897</v>
       </c>
       <c r="DJ3" t="n">
-        <v>1.97225491042664</v>
+        <v>0.0184640191689905</v>
       </c>
       <c r="DK3" t="n">
-        <v>0.997375312959604</v>
+        <v>-1.62751535604635</v>
       </c>
       <c r="DL3" t="n">
-        <v>-0.487353734894808</v>
+        <v>-0.455828251202351</v>
       </c>
       <c r="DM3" t="n">
-        <v>-0.80573362500093</v>
+        <v>1.5490284104459</v>
       </c>
       <c r="DN3" t="n">
-        <v>-0.365281557037727</v>
+        <v>-0.321943120257276</v>
       </c>
       <c r="DO3" t="n">
-        <v>1.28680946695886</v>
+        <v>0.637804417150799</v>
       </c>
       <c r="DP3" t="n">
-        <v>-2.01326296554046</v>
+        <v>0.862040462825464</v>
       </c>
       <c r="DQ3" t="n">
-        <v>-0.934502355674558</v>
+        <v>-0.06772255012198</v>
       </c>
       <c r="DR3" t="n">
-        <v>-0.286614611341324</v>
+        <v>-0.492640372513537</v>
       </c>
       <c r="DS3" t="n">
-        <v>0.0745388538140937</v>
+        <v>0.761660368961171</v>
       </c>
       <c r="DT3" t="n">
-        <v>-0.189396097899429</v>
+        <v>-0.69402969396705</v>
       </c>
       <c r="DU3" t="n">
-        <v>-1.16024077152744</v>
+        <v>0.414220410213826</v>
       </c>
       <c r="DV3" t="n">
-        <v>-0.148905378354393</v>
+        <v>-1.89371331172106</v>
       </c>
       <c r="DW3" t="n">
-        <v>1.48851438308517</v>
+        <v>-1.17081353559205</v>
       </c>
       <c r="DX3" t="n">
-        <v>0.340953472333767</v>
+        <v>-1.65395057484538</v>
       </c>
       <c r="DY3" t="n">
-        <v>-0.156585790343576</v>
+        <v>-0.286690793906981</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0.513298480628859</v>
+        <v>-0.347486276478087</v>
       </c>
       <c r="EA3" t="n">
-        <v>-1.4965890698824</v>
+        <v>1.21736175727997</v>
       </c>
       <c r="EB3" t="n">
-        <v>1.39809323445896</v>
+        <v>1.39288354592942</v>
       </c>
       <c r="EC3" t="n">
-        <v>0.301792048969663</v>
+        <v>-0.0304861845747724</v>
       </c>
       <c r="ED3" t="n">
-        <v>-1.94026123187258</v>
+        <v>-1.69181129661368</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.101143429466976</v>
+        <v>0.882950314916038</v>
       </c>
       <c r="EF3" t="n">
-        <v>-0.774690684385199</v>
+        <v>0.243390413537467</v>
       </c>
       <c r="EG3" t="n">
-        <v>0.583301752499506</v>
+        <v>-0.187364378782289</v>
       </c>
       <c r="EH3" t="n">
-        <v>1.45122230133759</v>
+        <v>-0.968750030629317</v>
       </c>
       <c r="EI3" t="n">
-        <v>-1.27328437458878</v>
+        <v>0.401668740706801</v>
       </c>
       <c r="EJ3" t="n">
-        <v>-1.11781342160443</v>
+        <v>-0.570351793977554</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.953521651511918</v>
+        <v>1.03792013082633</v>
       </c>
       <c r="EL3" t="n">
-        <v>2.23164413510473</v>
+        <v>-0.487729406115351</v>
       </c>
       <c r="EM3" t="n">
-        <v>-0.154008742768338</v>
+        <v>1.17205473585938</v>
       </c>
       <c r="EN3" t="n">
-        <v>-0.480104652827624</v>
+        <v>1.41916052353407</v>
       </c>
       <c r="EO3" t="n">
-        <v>2.10382696962435</v>
+        <v>0.269429996800802</v>
       </c>
       <c r="EP3" t="n">
-        <v>0.154146856678564</v>
+        <v>1.5206923554915</v>
       </c>
       <c r="EQ3" t="n">
-        <v>-0.0530117866751405</v>
+        <v>-0.109001340225221</v>
       </c>
       <c r="ER3" t="n">
-        <v>-1.70110629763358</v>
+        <v>1.00573967804933</v>
       </c>
       <c r="ES3" t="n">
-        <v>-0.608143840091025</v>
+        <v>-0.944450790701732</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.536351794097222</v>
+        <v>0.642047597070607</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.524560577847156</v>
+        <v>1.31363701674097</v>
       </c>
       <c r="EV3" t="n">
-        <v>0.340117006922965</v>
+        <v>0.189510675723656</v>
       </c>
       <c r="EW3" t="n">
-        <v>1.32125254293817</v>
+        <v>0.849962393311045</v>
       </c>
       <c r="EX3" t="n">
-        <v>-2.46591856957519</v>
+        <v>-1.8689831477019</v>
       </c>
       <c r="EY3" t="n">
-        <v>2.29286621065086</v>
+        <v>-1.41971061296785</v>
       </c>
       <c r="EZ3" t="n">
-        <v>-0.538410007499702</v>
+        <v>-0.82056157447286</v>
       </c>
       <c r="FA3" t="n">
-        <v>0.835936481861012</v>
+        <v>1.36619495600301</v>
       </c>
       <c r="FB3" t="n">
-        <v>-0.305393940923806</v>
+        <v>0.30798101440127</v>
       </c>
       <c r="FC3" t="n">
-        <v>-1.06595387833778</v>
+        <v>1.6826224922036</v>
       </c>
       <c r="FD3" t="n">
-        <v>-0.683650151891422</v>
+        <v>0.815839311664332</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.252116677463666</v>
+        <v>-0.851893509516883</v>
       </c>
       <c r="FF3" t="n">
-        <v>-0.428220457376711</v>
+        <v>-0.177770953275109</v>
       </c>
       <c r="FG3" t="n">
-        <v>-1.62530824919226</v>
+        <v>1.87342110538326</v>
       </c>
       <c r="FH3" t="n">
-        <v>-0.869698576262546</v>
+        <v>1.82043028573023</v>
       </c>
       <c r="FI3" t="n">
-        <v>-0.694029376347792</v>
+        <v>-0.716149986339407</v>
       </c>
       <c r="FJ3" t="n">
-        <v>-0.500264108267907</v>
+        <v>0.914224701986364</v>
       </c>
       <c r="FK3" t="n">
         <v>1</v>
@@ -2524,19 +2551,19 @@
         <v>0</v>
       </c>
       <c r="FR3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FS3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FT3" t="n">
         <v>0</v>
       </c>
       <c r="FU3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FV3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FW3" t="n">
         <v>1</v>
@@ -2551,510 +2578,519 @@
         <v>0</v>
       </c>
       <c r="GA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD3" t="n">
         <v>1</v>
       </c>
-      <c r="GB3" t="n">
-        <v>1</v>
+      <c r="GE3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.579975266898699</v>
+        <v>0.0291021885929026</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.836196341655239</v>
+        <v>-0.187467250070358</v>
       </c>
       <c r="C4" t="n">
-        <v>0.599093296294151</v>
+        <v>-0.524563555646364</v>
       </c>
       <c r="D4" t="n">
-        <v>0.641122045430271</v>
+        <v>2.67981540882791</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.94688225096372</v>
+        <v>1.14898100989251</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.00258554548462075</v>
+        <v>-0.657297590102655</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0951961791243888</v>
+        <v>0.377733058868199</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.519977489457342</v>
+        <v>0.533379107131799</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.0222188713403346</v>
+        <v>-0.828937632784198</v>
       </c>
       <c r="J4" t="n">
-        <v>0.22176455412669</v>
+        <v>-0.510216466219332</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.385276488415955</v>
+        <v>-0.71985952430109</v>
       </c>
       <c r="L4" t="n">
-        <v>0.371404615106319</v>
+        <v>1.12553638364443</v>
       </c>
       <c r="M4" t="n">
-        <v>-1.7551584494039</v>
+        <v>0.0966595479433467</v>
       </c>
       <c r="N4" t="n">
-        <v>-2.44472191667648</v>
+        <v>0.118212660197326</v>
       </c>
       <c r="O4" t="n">
-        <v>-1.09507303560402</v>
+        <v>-0.23205828241546</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.907506690215787</v>
+        <v>0.133468880722265</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.252526078821719</v>
+        <v>-0.048443495022137</v>
       </c>
       <c r="R4" t="n">
-        <v>-1.08036114469686</v>
+        <v>-1.30336845208548</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.230869629129728</v>
+        <v>0.602457069073266</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.720622538527475</v>
+        <v>-0.595616398440225</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.612692036742103</v>
+        <v>0.30697049876985</v>
       </c>
       <c r="V4" t="n">
-        <v>0.870192147760483</v>
+        <v>-1.17337719174624</v>
       </c>
       <c r="W4" t="n">
-        <v>-1.85367142568458</v>
+        <v>-0.180284882759816</v>
       </c>
       <c r="X4" t="n">
-        <v>0.0922265709135896</v>
+        <v>0.458567918851705</v>
       </c>
       <c r="Y4" t="n">
-        <v>-0.628380411333457</v>
+        <v>1.96209186697259</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.943112832683308</v>
+        <v>-1.51164592756375</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0.0530015006050842</v>
+        <v>-0.86342415791035</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.33535289525871</v>
+        <v>-0.797559005864488</v>
       </c>
       <c r="AC4" t="n">
-        <v>-1.44564956465753</v>
+        <v>-0.642148957222401</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.922184465194365</v>
+        <v>1.58782553593688</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.915630895440389</v>
+        <v>1.16163253796547</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.40248824388088</v>
+        <v>1.5015983943004</v>
       </c>
       <c r="AG4" t="n">
-        <v>1.01452441847626</v>
+        <v>-0.0167997265040032</v>
       </c>
       <c r="AH4" t="n">
-        <v>-0.383377361684879</v>
+        <v>-0.406044754892063</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.188201484054055</v>
+        <v>-0.818448753164727</v>
       </c>
       <c r="AJ4" t="n">
-        <v>-0.875356685771395</v>
+        <v>-0.0601988315423066</v>
       </c>
       <c r="AK4" t="n">
-        <v>-0.765162793153966</v>
+        <v>-0.957778825063958</v>
       </c>
       <c r="AL4" t="n">
-        <v>-0.0432329240779925</v>
+        <v>0.856599580823971</v>
       </c>
       <c r="AM4" t="n">
-        <v>-1.147844303106</v>
+        <v>1.01186856908426</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.116654183653545</v>
+        <v>0.0145058487490362</v>
       </c>
       <c r="AO4" t="n">
-        <v>-1.43902994364389</v>
+        <v>0.393952882847004</v>
       </c>
       <c r="AP4" t="n">
-        <v>-0.613287006928257</v>
+        <v>-0.752260866514854</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.38173523668409</v>
+        <v>0.20521596660037</v>
       </c>
       <c r="AR4" t="n">
-        <v>-0.873658514807484</v>
+        <v>-1.45820810072711</v>
       </c>
       <c r="AS4" t="n">
-        <v>-1.12354164737411</v>
+        <v>0.483662658202089</v>
       </c>
       <c r="AT4" t="n">
-        <v>-0.914275177171774</v>
+        <v>0.736691333375208</v>
       </c>
       <c r="AU4" t="n">
-        <v>-0.880062355353365</v>
+        <v>2.46854040348094</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.238503226805374</v>
+        <v>-0.272489796142487</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.358601860901075</v>
+        <v>-0.396059668402682</v>
       </c>
       <c r="AX4" t="n">
-        <v>1.9658903938725</v>
+        <v>-0.689727131076461</v>
       </c>
       <c r="AY4" t="n">
-        <v>-0.32790265612454</v>
+        <v>-1.93359704920219</v>
       </c>
       <c r="AZ4" t="n">
-        <v>-0.702165972604644</v>
+        <v>0.815326385931089</v>
       </c>
       <c r="BA4" t="n">
-        <v>-0.434739350349885</v>
+        <v>0.763925034480556</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.147195946979453</v>
+        <v>-0.322882975366675</v>
       </c>
       <c r="BC4" t="n">
-        <v>-0.974296941993016</v>
+        <v>-0.953561907103362</v>
       </c>
       <c r="BD4" t="n">
-        <v>-0.227900605921778</v>
+        <v>-0.862965938583339</v>
       </c>
       <c r="BE4" t="n">
-        <v>2.46629645778674</v>
+        <v>1.46243054656183</v>
       </c>
       <c r="BF4" t="n">
-        <v>-0.832353494769996</v>
+        <v>-0.326530312730801</v>
       </c>
       <c r="BG4" t="n">
-        <v>-0.00114133388066147</v>
+        <v>-0.793587624949719</v>
       </c>
       <c r="BH4" t="n">
-        <v>-0.268096883659684</v>
+        <v>-0.187002429754615</v>
       </c>
       <c r="BI4" t="n">
-        <v>-1.90770994470728</v>
+        <v>0.0808345760915391</v>
       </c>
       <c r="BJ4" t="n">
-        <v>-2.05107264434467</v>
+        <v>0.806370441076428</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.27108955365649</v>
+        <v>-0.713626284348292</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.249184682520779</v>
+        <v>-0.983417864621186</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.378744895822558</v>
+        <v>-1.43445046818451</v>
       </c>
       <c r="BN4" t="n">
-        <v>1.15793756763269</v>
+        <v>-0.416369489635166</v>
       </c>
       <c r="BO4" t="n">
-        <v>-0.507304060151007</v>
+        <v>-0.56034112928169</v>
       </c>
       <c r="BP4" t="n">
-        <v>-0.597104784533281</v>
+        <v>-1.9979200606806</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.828097231070116</v>
+        <v>0.59246158978681</v>
       </c>
       <c r="BR4" t="n">
-        <v>0.80603380478034</v>
+        <v>0.904491605683951</v>
       </c>
       <c r="BS4" t="n">
-        <v>-0.421484550135212</v>
+        <v>0.228048462952152</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.494493089018498</v>
+        <v>1.00781579575924</v>
       </c>
       <c r="BU4" t="n">
-        <v>2.89188704470991</v>
+        <v>0.918797249580216</v>
       </c>
       <c r="BV4" t="n">
-        <v>-0.0360803769164538</v>
+        <v>-0.265259909450116</v>
       </c>
       <c r="BW4" t="n">
-        <v>1.0032019893492</v>
+        <v>0.940941596746667</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.836174031080568</v>
+        <v>-2.09905996748553</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.106999579392184</v>
+        <v>0.252931547087331</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.82161385005402</v>
+        <v>-0.0742734590163371</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.139859125118024</v>
+        <v>1.150683904469</v>
       </c>
       <c r="CB4" t="n">
-        <v>1.81054710805108</v>
+        <v>0.150892596780629</v>
       </c>
       <c r="CC4" t="n">
-        <v>1.07021154727744</v>
+        <v>-0.206097929312639</v>
       </c>
       <c r="CD4" t="n">
-        <v>-0.0342250573787849</v>
+        <v>1.61121099767614</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.826616663679831</v>
+        <v>-1.18383802256387</v>
       </c>
       <c r="CF4" t="n">
-        <v>-0.00900389340524203</v>
+        <v>-0.353650616602278</v>
       </c>
       <c r="CG4" t="n">
-        <v>0.55113250231614</v>
+        <v>-1.10089939755812</v>
       </c>
       <c r="CH4" t="n">
-        <v>1.14316286150286</v>
+        <v>1.1885525307418</v>
       </c>
       <c r="CI4" t="n">
-        <v>-1.54866701631006</v>
+        <v>-1.9121017592932</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0.35789525378686</v>
+        <v>0.113132933465991</v>
       </c>
       <c r="CK4" t="n">
-        <v>0.781976649339446</v>
+        <v>0.61616552054814</v>
       </c>
       <c r="CL4" t="n">
-        <v>-0.642374638080164</v>
+        <v>1.0839528319249</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.372127150249954</v>
+        <v>-0.572126141038828</v>
       </c>
       <c r="CN4" t="n">
-        <v>-0.162063561481818</v>
+        <v>-0.694612364744575</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.115523251455304</v>
+        <v>0.0589140354595188</v>
       </c>
       <c r="CP4" t="n">
-        <v>1.90092987486089</v>
+        <v>-1.16938794542862</v>
       </c>
       <c r="CQ4" t="n">
-        <v>-1.95765030495847</v>
+        <v>0.0142965964144351</v>
       </c>
       <c r="CR4" t="n">
-        <v>1.18307046971456</v>
+        <v>-0.122345413260785</v>
       </c>
       <c r="CS4" t="n">
-        <v>1.40903837805785</v>
+        <v>0.00316043387132161</v>
       </c>
       <c r="CT4" t="n">
-        <v>-0.597986706408395</v>
+        <v>0.269302089001132</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.303133614418268</v>
+        <v>-0.22060373964861</v>
       </c>
       <c r="CV4" t="n">
-        <v>-0.082367574658474</v>
+        <v>-0.0642734594995518</v>
       </c>
       <c r="CW4" t="n">
-        <v>-0.314149742617304</v>
+        <v>0.363088773140158</v>
       </c>
       <c r="CX4" t="n">
-        <v>-2.20849741843583</v>
+        <v>0.221716165264753</v>
       </c>
       <c r="CY4" t="n">
-        <v>1.56891639562197</v>
+        <v>-1.14233798343846</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.00886424639288223</v>
+        <v>-0.217353349290512</v>
       </c>
       <c r="DA4" t="n">
-        <v>1.64338130473483</v>
+        <v>-0.159347557754572</v>
       </c>
       <c r="DB4" t="n">
-        <v>-0.0552277505382644</v>
+        <v>-1.17080870198588</v>
       </c>
       <c r="DC4" t="n">
-        <v>-1.75774430022077</v>
+        <v>1.08972027501259</v>
       </c>
       <c r="DD4" t="n">
-        <v>-0.30556978044094</v>
+        <v>0.0781679718526781</v>
       </c>
       <c r="DE4" t="n">
-        <v>0.90479228628969</v>
+        <v>-0.531918722928509</v>
       </c>
       <c r="DF4" t="n">
-        <v>-0.169406881803974</v>
+        <v>-1.11440780199853</v>
       </c>
       <c r="DG4" t="n">
-        <v>0.247211986963014</v>
+        <v>-2.72037271040328</v>
       </c>
       <c r="DH4" t="n">
-        <v>-0.531430539412127</v>
+        <v>0.498369553291584</v>
       </c>
       <c r="DI4" t="n">
-        <v>1.00033861869214</v>
+        <v>1.32773666322897</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1.97225491042664</v>
+        <v>0.0184640191689905</v>
       </c>
       <c r="DK4" t="n">
-        <v>0.997375312959604</v>
+        <v>-1.62751535604635</v>
       </c>
       <c r="DL4" t="n">
-        <v>-0.487353734894808</v>
+        <v>-0.455828251202351</v>
       </c>
       <c r="DM4" t="n">
-        <v>-0.80573362500093</v>
+        <v>1.5490284104459</v>
       </c>
       <c r="DN4" t="n">
-        <v>-0.365281557037727</v>
+        <v>-0.321943120257276</v>
       </c>
       <c r="DO4" t="n">
-        <v>1.28680946695886</v>
+        <v>0.637804417150799</v>
       </c>
       <c r="DP4" t="n">
-        <v>-2.01326296554046</v>
+        <v>0.862040462825464</v>
       </c>
       <c r="DQ4" t="n">
-        <v>-0.934502355674558</v>
+        <v>-0.06772255012198</v>
       </c>
       <c r="DR4" t="n">
-        <v>-0.286614611341324</v>
+        <v>-0.492640372513537</v>
       </c>
       <c r="DS4" t="n">
-        <v>0.0745388538140937</v>
+        <v>0.761660368961171</v>
       </c>
       <c r="DT4" t="n">
-        <v>-0.189396097899429</v>
+        <v>-0.69402969396705</v>
       </c>
       <c r="DU4" t="n">
-        <v>-1.16024077152744</v>
+        <v>0.414220410213826</v>
       </c>
       <c r="DV4" t="n">
-        <v>-0.148905378354393</v>
+        <v>-1.89371331172106</v>
       </c>
       <c r="DW4" t="n">
-        <v>1.48851438308517</v>
+        <v>-1.17081353559205</v>
       </c>
       <c r="DX4" t="n">
-        <v>0.340953472333767</v>
+        <v>-1.65395057484538</v>
       </c>
       <c r="DY4" t="n">
-        <v>-0.156585790343576</v>
+        <v>-0.286690793906981</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.513298480628859</v>
+        <v>-0.347486276478087</v>
       </c>
       <c r="EA4" t="n">
-        <v>-1.4965890698824</v>
+        <v>1.21736175727997</v>
       </c>
       <c r="EB4" t="n">
-        <v>1.39809323445896</v>
+        <v>1.39288354592942</v>
       </c>
       <c r="EC4" t="n">
-        <v>0.301792048969663</v>
+        <v>-0.0304861845747724</v>
       </c>
       <c r="ED4" t="n">
-        <v>-1.94026123187258</v>
+        <v>-1.69181129661368</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.101143429466976</v>
+        <v>0.882950314916038</v>
       </c>
       <c r="EF4" t="n">
-        <v>-0.774690684385199</v>
+        <v>0.243390413537467</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.583301752499506</v>
+        <v>-0.187364378782289</v>
       </c>
       <c r="EH4" t="n">
-        <v>1.45122230133759</v>
+        <v>-0.968750030629317</v>
       </c>
       <c r="EI4" t="n">
-        <v>-1.27328437458878</v>
+        <v>0.401668740706801</v>
       </c>
       <c r="EJ4" t="n">
-        <v>-1.11781342160443</v>
+        <v>-0.570351793977554</v>
       </c>
       <c r="EK4" t="n">
-        <v>0.953521651511918</v>
+        <v>1.03792013082633</v>
       </c>
       <c r="EL4" t="n">
-        <v>2.23164413510473</v>
+        <v>-0.487729406115351</v>
       </c>
       <c r="EM4" t="n">
-        <v>-0.154008742768338</v>
+        <v>1.17205473585938</v>
       </c>
       <c r="EN4" t="n">
-        <v>-0.480104652827624</v>
+        <v>1.41916052353407</v>
       </c>
       <c r="EO4" t="n">
-        <v>2.10382696962435</v>
+        <v>0.269429996800802</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.154146856678564</v>
+        <v>1.5206923554915</v>
       </c>
       <c r="EQ4" t="n">
-        <v>-0.0530117866751405</v>
+        <v>-0.109001340225221</v>
       </c>
       <c r="ER4" t="n">
-        <v>-1.70110629763358</v>
+        <v>1.00573967804933</v>
       </c>
       <c r="ES4" t="n">
-        <v>-0.608143840091025</v>
+        <v>-0.944450790701732</v>
       </c>
       <c r="ET4" t="n">
-        <v>0.536351794097222</v>
+        <v>0.642047597070607</v>
       </c>
       <c r="EU4" t="n">
-        <v>0.524560577847156</v>
+        <v>1.31363701674097</v>
       </c>
       <c r="EV4" t="n">
-        <v>0.340117006922965</v>
+        <v>0.189510675723656</v>
       </c>
       <c r="EW4" t="n">
-        <v>1.32125254293817</v>
+        <v>0.849962393311045</v>
       </c>
       <c r="EX4" t="n">
-        <v>-2.46591856957519</v>
+        <v>-1.8689831477019</v>
       </c>
       <c r="EY4" t="n">
-        <v>2.29286621065086</v>
+        <v>-1.41971061296785</v>
       </c>
       <c r="EZ4" t="n">
-        <v>-0.538410007499702</v>
+        <v>-0.82056157447286</v>
       </c>
       <c r="FA4" t="n">
-        <v>0.835936481861012</v>
+        <v>1.36619495600301</v>
       </c>
       <c r="FB4" t="n">
-        <v>-0.305393940923806</v>
+        <v>0.30798101440127</v>
       </c>
       <c r="FC4" t="n">
-        <v>-1.06595387833778</v>
+        <v>1.6826224922036</v>
       </c>
       <c r="FD4" t="n">
-        <v>-0.683650151891422</v>
+        <v>0.815839311664332</v>
       </c>
       <c r="FE4" t="n">
-        <v>0.252116677463666</v>
+        <v>-0.851893509516883</v>
       </c>
       <c r="FF4" t="n">
-        <v>-0.428220457376711</v>
+        <v>-0.177770953275109</v>
       </c>
       <c r="FG4" t="n">
-        <v>-1.62530824919226</v>
+        <v>1.87342110538326</v>
       </c>
       <c r="FH4" t="n">
-        <v>-0.869698576262546</v>
+        <v>1.82043028573023</v>
       </c>
       <c r="FI4" t="n">
-        <v>-0.694029376347792</v>
+        <v>-0.716149986339407</v>
       </c>
       <c r="FJ4" t="n">
-        <v>-0.500264108267907</v>
+        <v>0.914224701986364</v>
       </c>
       <c r="FK4" t="n">
         <v>1</v>
@@ -3078,19 +3114,19 @@
         <v>0</v>
       </c>
       <c r="FR4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FS4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FT4" t="n">
         <v>0</v>
       </c>
       <c r="FU4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FV4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FW4" t="n">
         <v>1</v>
@@ -3105,10 +3141,19 @@
         <v>0</v>
       </c>
       <c r="GA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD4" t="n">
         <v>1</v>
       </c>
-      <c r="GB4" t="n">
-        <v>1</v>
+      <c r="GE4" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/file_checks/dataset_wrong_genes_correct_pheno.xlsx
+++ b/file_checks/dataset_wrong_genes_correct_pheno.xlsx
@@ -1469,520 +1469,520 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0291021885929026</v>
+        <v>1.34561069470336</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.187467250070358</v>
+        <v>-1.38945853082221</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.524563555646364</v>
+        <v>-0.244240164512807</v>
       </c>
       <c r="D2" t="n">
-        <v>2.67981540882791</v>
+        <v>-1.5606870317487</v>
       </c>
       <c r="E2" t="n">
-        <v>1.14898100989251</v>
+        <v>-0.864756389824347</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.657297590102655</v>
+        <v>-0.0474365628991265</v>
       </c>
       <c r="G2" t="n">
-        <v>0.377733058868199</v>
+        <v>-1.48607963006136</v>
       </c>
       <c r="H2" t="n">
-        <v>0.533379107131799</v>
+        <v>-0.0257111534908027</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.828937632784198</v>
+        <v>1.49277300053175</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.510216466219332</v>
+        <v>-0.808643700769076</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.71985952430109</v>
+        <v>0.759858752451886</v>
       </c>
       <c r="L2" t="n">
-        <v>1.12553638364443</v>
+        <v>0.670715024420545</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0966595479433467</v>
+        <v>0.86602608348758</v>
       </c>
       <c r="N2" t="n">
-        <v>0.118212660197326</v>
+        <v>-1.15611815258545</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.23205828241546</v>
+        <v>-0.505979140635687</v>
       </c>
       <c r="P2" t="n">
-        <v>0.133468880722265</v>
+        <v>-0.923068383391524</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.048443495022137</v>
+        <v>-0.965316789283607</v>
       </c>
       <c r="R2" t="n">
-        <v>-1.30336845208548</v>
+        <v>-1.54543913336125</v>
       </c>
       <c r="S2" t="n">
-        <v>0.602457069073266</v>
+        <v>-0.667687214121597</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.595616398440225</v>
+        <v>0.963759752905</v>
       </c>
       <c r="U2" t="n">
-        <v>0.30697049876985</v>
+        <v>2.01611833328654</v>
       </c>
       <c r="V2" t="n">
-        <v>-1.17337719174624</v>
+        <v>-0.498904177895415</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.180284882759816</v>
+        <v>-0.549656798572218</v>
       </c>
       <c r="X2" t="n">
-        <v>0.458567918851705</v>
+        <v>0.485577911476225</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.96209186697259</v>
+        <v>-1.16631750919386</v>
       </c>
       <c r="Z2" t="n">
-        <v>-1.51164592756375</v>
+        <v>-0.156541199511852</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.86342415791035</v>
+        <v>-0.60545402081498</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.797559005864488</v>
+        <v>-2.73451490065006</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.642148957222401</v>
+        <v>0.452783425337735</v>
       </c>
       <c r="AD2" t="n">
-        <v>1.58782553593688</v>
+        <v>-0.879838767234522</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.16163253796547</v>
+        <v>0.325142915903344</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.5015983943004</v>
+        <v>1.00237671470922</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.0167997265040032</v>
+        <v>-0.265740894462844</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.406044754892063</v>
+        <v>-0.218708544226677</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.818448753164727</v>
+        <v>1.46625352571675</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.0601988315423066</v>
+        <v>-0.301381966398946</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.957778825063958</v>
+        <v>-0.861089378547494</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.856599580823971</v>
+        <v>0.407291834076323</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.01186856908426</v>
+        <v>0.396505814904339</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.0145058487490362</v>
+        <v>-0.843233101523622</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.393952882847004</v>
+        <v>-1.02295662439932</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.752260866514854</v>
+        <v>-0.461904909885648</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.20521596660037</v>
+        <v>0.300876519190041</v>
       </c>
       <c r="AR2" t="n">
-        <v>-1.45820810072711</v>
+        <v>-0.259148863287485</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.483662658202089</v>
+        <v>0.93194696179414</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.736691333375208</v>
+        <v>0.775860798805919</v>
       </c>
       <c r="AU2" t="n">
-        <v>2.46854040348094</v>
+        <v>-0.0244004260860656</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.272489796142487</v>
+        <v>-0.618616091419847</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.396059668402682</v>
+        <v>-0.281375418859854</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.689727131076461</v>
+        <v>1.60815881362336</v>
       </c>
       <c r="AY2" t="n">
-        <v>-1.93359704920219</v>
+        <v>0.604809155776409</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.815326385931089</v>
+        <v>0.945679562304206</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.763925034480556</v>
+        <v>0.984867186945876</v>
       </c>
       <c r="BB2" t="n">
-        <v>-0.322882975366675</v>
+        <v>-0.814502883396476</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.953561907103362</v>
+        <v>0.838836368283563</v>
       </c>
       <c r="BD2" t="n">
-        <v>-0.862965938583339</v>
+        <v>-0.98976370515428</v>
       </c>
       <c r="BE2" t="n">
-        <v>1.46243054656183</v>
+        <v>-0.417716554722542</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0.326530312730801</v>
+        <v>-0.311730327138213</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.793587624949719</v>
+        <v>-1.56630091935297</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0.187002429754615</v>
+        <v>0.968153002386173</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.0808345760915391</v>
+        <v>1.78001566389557</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.806370441076428</v>
+        <v>1.55100390814407</v>
       </c>
       <c r="BK2" t="n">
-        <v>-0.713626284348292</v>
+        <v>0.99317519278453</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0.983417864621186</v>
+        <v>-0.404324455763866</v>
       </c>
       <c r="BM2" t="n">
-        <v>-1.43445046818451</v>
+        <v>0.221532830813008</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.416369489635166</v>
+        <v>-0.947548493421025</v>
       </c>
       <c r="BO2" t="n">
-        <v>-0.56034112928169</v>
+        <v>0.897633441555717</v>
       </c>
       <c r="BP2" t="n">
-        <v>-1.9979200606806</v>
+        <v>-0.372163140505052</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.59246158978681</v>
+        <v>0.809191342050779</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.904491605683951</v>
+        <v>-0.770646255633843</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.228048462952152</v>
+        <v>0.152080122464328</v>
       </c>
       <c r="BT2" t="n">
-        <v>1.00781579575924</v>
+        <v>-0.326835058391025</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.918797249580216</v>
+        <v>0.204404313324527</v>
       </c>
       <c r="BV2" t="n">
-        <v>-0.265259909450116</v>
+        <v>1.08468376910405</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.940941596746667</v>
+        <v>-1.08965201441946</v>
       </c>
       <c r="BX2" t="n">
-        <v>-2.09905996748553</v>
+        <v>-1.05479909038332</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.252931547087331</v>
+        <v>-0.753834123866309</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-0.0742734590163371</v>
+        <v>0.623702529355536</v>
       </c>
       <c r="CA2" t="n">
-        <v>1.150683904469</v>
+        <v>-2.10589300691505</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.150892596780629</v>
+        <v>-0.743353484103175</v>
       </c>
       <c r="CC2" t="n">
-        <v>-0.206097929312639</v>
+        <v>-1.24794366413573</v>
       </c>
       <c r="CD2" t="n">
-        <v>1.61121099767614</v>
+        <v>-0.304232984938025</v>
       </c>
       <c r="CE2" t="n">
-        <v>-1.18383802256387</v>
+        <v>1.30404297782457</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.353650616602278</v>
+        <v>-1.2989951358027</v>
       </c>
       <c r="CG2" t="n">
-        <v>-1.10089939755812</v>
+        <v>1.77555610968437</v>
       </c>
       <c r="CH2" t="n">
-        <v>1.1885525307418</v>
+        <v>0.00869283706515481</v>
       </c>
       <c r="CI2" t="n">
-        <v>-1.9121017592932</v>
+        <v>1.33573339814665</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.113132933465991</v>
+        <v>-1.3208991847341</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.61616552054814</v>
+        <v>-0.548101172162803</v>
       </c>
       <c r="CL2" t="n">
-        <v>1.0839528319249</v>
+        <v>-0.127295900823037</v>
       </c>
       <c r="CM2" t="n">
-        <v>-0.572126141038828</v>
+        <v>0.678059339023184</v>
       </c>
       <c r="CN2" t="n">
-        <v>-0.694612364744575</v>
+        <v>-0.988518787045919</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.0589140354595188</v>
+        <v>-1.14864519372212</v>
       </c>
       <c r="CP2" t="n">
-        <v>-1.16938794542862</v>
+        <v>-0.0369861140727404</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.0142965964144351</v>
+        <v>0.0263881489102461</v>
       </c>
       <c r="CR2" t="n">
-        <v>-0.122345413260785</v>
+        <v>0.0237100706205712</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.00316043387132161</v>
+        <v>0.228285117223899</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.269302089001132</v>
+        <v>0.294868213817216</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0.22060373964861</v>
+        <v>0.400194288740497</v>
       </c>
       <c r="CV2" t="n">
-        <v>-0.0642734594995518</v>
+        <v>-0.0602880315429535</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.363088773140158</v>
+        <v>-1.91469105597511</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.221716165264753</v>
+        <v>-0.944088911124576</v>
       </c>
       <c r="CY2" t="n">
-        <v>-1.14233798343846</v>
+        <v>-1.85791098187749</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-0.217353349290512</v>
+        <v>0.742040129874045</v>
       </c>
       <c r="DA2" t="n">
-        <v>-0.159347557754572</v>
+        <v>-1.90579052501153</v>
       </c>
       <c r="DB2" t="n">
-        <v>-1.17080870198588</v>
+        <v>-0.217755954622527</v>
       </c>
       <c r="DC2" t="n">
-        <v>1.08972027501259</v>
+        <v>-0.514678860114671</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.0781679718526781</v>
+        <v>-1.96625394923984</v>
       </c>
       <c r="DE2" t="n">
-        <v>-0.531918722928509</v>
+        <v>-0.798881264060309</v>
       </c>
       <c r="DF2" t="n">
-        <v>-1.11440780199853</v>
+        <v>0.829978202388264</v>
       </c>
       <c r="DG2" t="n">
-        <v>-2.72037271040328</v>
+        <v>-0.546496066196478</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.498369553291584</v>
+        <v>0.0041962284064871</v>
       </c>
       <c r="DI2" t="n">
-        <v>1.32773666322897</v>
+        <v>-0.507524775225468</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.0184640191689905</v>
+        <v>0.0187008973649261</v>
       </c>
       <c r="DK2" t="n">
-        <v>-1.62751535604635</v>
+        <v>-0.541551916533821</v>
       </c>
       <c r="DL2" t="n">
-        <v>-0.455828251202351</v>
+        <v>0.325459282418475</v>
       </c>
       <c r="DM2" t="n">
-        <v>1.5490284104459</v>
+        <v>0.183727141567542</v>
       </c>
       <c r="DN2" t="n">
-        <v>-0.321943120257276</v>
+        <v>1.84613960274062</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.637804417150799</v>
+        <v>1.76126196062849</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.862040462825464</v>
+        <v>1.0802761565024</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0.06772255012198</v>
+        <v>1.35033471014238</v>
       </c>
       <c r="DR2" t="n">
-        <v>-0.492640372513537</v>
+        <v>0.163229080106905</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.761660368961171</v>
+        <v>-0.199066500938507</v>
       </c>
       <c r="DT2" t="n">
-        <v>-0.69402969396705</v>
+        <v>0.625049097650147</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.414220410213826</v>
+        <v>1.35826297848875</v>
       </c>
       <c r="DV2" t="n">
-        <v>-1.89371331172106</v>
+        <v>0.279357982344611</v>
       </c>
       <c r="DW2" t="n">
-        <v>-1.17081353559205</v>
+        <v>-0.20194193674549</v>
       </c>
       <c r="DX2" t="n">
-        <v>-1.65395057484538</v>
+        <v>-0.156420141754288</v>
       </c>
       <c r="DY2" t="n">
-        <v>-0.286690793906981</v>
+        <v>-1.22062690153038</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0.347486276478087</v>
+        <v>-0.286030994681369</v>
       </c>
       <c r="EA2" t="n">
-        <v>1.21736175727997</v>
+        <v>-1.35638678014825</v>
       </c>
       <c r="EB2" t="n">
-        <v>1.39288354592942</v>
+        <v>-1.11314466876821</v>
       </c>
       <c r="EC2" t="n">
-        <v>-0.0304861845747724</v>
+        <v>0.408866080441824</v>
       </c>
       <c r="ED2" t="n">
-        <v>-1.69181129661368</v>
+        <v>1.39826099993749</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.882950314916038</v>
+        <v>0.283139980591918</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.243390413537467</v>
+        <v>-1.04049481618663</v>
       </c>
       <c r="EG2" t="n">
-        <v>-0.187364378782289</v>
+        <v>0.218631329824508</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0.968750030629317</v>
+        <v>0.415585160647233</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.401668740706801</v>
+        <v>0.909651429626553</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-0.570351793977554</v>
+        <v>0.196314615139122</v>
       </c>
       <c r="EK2" t="n">
-        <v>1.03792013082633</v>
+        <v>0.0704552393881958</v>
       </c>
       <c r="EL2" t="n">
-        <v>-0.487729406115351</v>
+        <v>-0.377870079869272</v>
       </c>
       <c r="EM2" t="n">
-        <v>1.17205473585938</v>
+        <v>2.05657548339844</v>
       </c>
       <c r="EN2" t="n">
-        <v>1.41916052353407</v>
+        <v>-0.0289898300931772</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.269429996800802</v>
+        <v>0.303876919499582</v>
       </c>
       <c r="EP2" t="n">
-        <v>1.5206923554915</v>
+        <v>-0.947615973292948</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-0.109001340225221</v>
+        <v>-0.594136893293916</v>
       </c>
       <c r="ER2" t="n">
-        <v>1.00573967804933</v>
+        <v>-0.544485925130241</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.944450790701732</v>
+        <v>0.0201273356146055</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.642047597070607</v>
+        <v>-2.52134630006729</v>
       </c>
       <c r="EU2" t="n">
-        <v>1.31363701674097</v>
+        <v>-0.573518637696091</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.189510675723656</v>
+        <v>2.0169439771542</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.849962393311045</v>
+        <v>-1.55076871125178</v>
       </c>
       <c r="EX2" t="n">
-        <v>-1.8689831477019</v>
+        <v>-1.39090285914185</v>
       </c>
       <c r="EY2" t="n">
-        <v>-1.41971061296785</v>
+        <v>-1.00439259017947</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0.82056157447286</v>
+        <v>-0.529570948130952</v>
       </c>
       <c r="FA2" t="n">
-        <v>1.36619495600301</v>
+        <v>2.20930028569395</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.30798101440127</v>
+        <v>-1.40429689211475</v>
       </c>
       <c r="FC2" t="n">
-        <v>1.6826224922036</v>
+        <v>0.11597947696018</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.815839311664332</v>
+        <v>0.693685712816985</v>
       </c>
       <c r="FE2" t="n">
-        <v>-0.851893509516883</v>
+        <v>1.17036253045615</v>
       </c>
       <c r="FF2" t="n">
-        <v>-0.177770953275109</v>
+        <v>1.29027222203933</v>
       </c>
       <c r="FG2" t="n">
-        <v>1.87342110538326</v>
+        <v>0.507978844674288</v>
       </c>
       <c r="FH2" t="n">
-        <v>1.82043028573023</v>
+        <v>0.0081613965063691</v>
       </c>
       <c r="FI2" t="n">
-        <v>-0.716149986339407</v>
+        <v>-0.611265363933986</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.914224701986364</v>
+        <v>0.134627522614471</v>
       </c>
       <c r="FK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN2" t="n">
         <v>1</v>
       </c>
-      <c r="FL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FN2" t="n">
-        <v>0</v>
-      </c>
       <c r="FO2" t="n">
         <v>0</v>
       </c>
       <c r="FP2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FQ2" t="n">
         <v>0</v>
@@ -1991,26 +1991,26 @@
         <v>1</v>
       </c>
       <c r="FS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY2" t="n">
         <v>1</v>
       </c>
-      <c r="FT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY2" t="n">
-        <v>0</v>
-      </c>
       <c r="FZ2" t="n">
         <v>0</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>0</v>
       </c>
       <c r="GD2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GE2" t="n">
         <v>0</v>
@@ -2032,520 +2032,520 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0291021885929026</v>
+        <v>1.34561069470336</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.187467250070358</v>
+        <v>-1.38945853082221</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.524563555646364</v>
+        <v>-0.244240164512807</v>
       </c>
       <c r="D3" t="n">
-        <v>2.67981540882791</v>
+        <v>-1.5606870317487</v>
       </c>
       <c r="E3" t="n">
-        <v>1.14898100989251</v>
+        <v>-0.864756389824347</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.657297590102655</v>
+        <v>-0.0474365628991265</v>
       </c>
       <c r="G3" t="n">
-        <v>0.377733058868199</v>
+        <v>-1.48607963006136</v>
       </c>
       <c r="H3" t="n">
-        <v>0.533379107131799</v>
+        <v>-0.0257111534908027</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.828937632784198</v>
+        <v>1.49277300053175</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.510216466219332</v>
+        <v>-0.808643700769076</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.71985952430109</v>
+        <v>0.759858752451886</v>
       </c>
       <c r="L3" t="n">
-        <v>1.12553638364443</v>
+        <v>0.670715024420545</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0966595479433467</v>
+        <v>0.86602608348758</v>
       </c>
       <c r="N3" t="n">
-        <v>0.118212660197326</v>
+        <v>-1.15611815258545</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.23205828241546</v>
+        <v>-0.505979140635687</v>
       </c>
       <c r="P3" t="n">
-        <v>0.133468880722265</v>
+        <v>-0.923068383391524</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.048443495022137</v>
+        <v>-0.965316789283607</v>
       </c>
       <c r="R3" t="n">
-        <v>-1.30336845208548</v>
+        <v>-1.54543913336125</v>
       </c>
       <c r="S3" t="n">
-        <v>0.602457069073266</v>
+        <v>-0.667687214121597</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.595616398440225</v>
+        <v>0.963759752905</v>
       </c>
       <c r="U3" t="n">
-        <v>0.30697049876985</v>
+        <v>2.01611833328654</v>
       </c>
       <c r="V3" t="n">
-        <v>-1.17337719174624</v>
+        <v>-0.498904177895415</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.180284882759816</v>
+        <v>-0.549656798572218</v>
       </c>
       <c r="X3" t="n">
-        <v>0.458567918851705</v>
+        <v>0.485577911476225</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.96209186697259</v>
+        <v>-1.16631750919386</v>
       </c>
       <c r="Z3" t="n">
-        <v>-1.51164592756375</v>
+        <v>-0.156541199511852</v>
       </c>
       <c r="AA3" t="n">
-        <v>-0.86342415791035</v>
+        <v>-0.60545402081498</v>
       </c>
       <c r="AB3" t="n">
-        <v>-0.797559005864488</v>
+        <v>-2.73451490065006</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.642148957222401</v>
+        <v>0.452783425337735</v>
       </c>
       <c r="AD3" t="n">
-        <v>1.58782553593688</v>
+        <v>-0.879838767234522</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.16163253796547</v>
+        <v>0.325142915903344</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.5015983943004</v>
+        <v>1.00237671470922</v>
       </c>
       <c r="AG3" t="n">
-        <v>-0.0167997265040032</v>
+        <v>-0.265740894462844</v>
       </c>
       <c r="AH3" t="n">
-        <v>-0.406044754892063</v>
+        <v>-0.218708544226677</v>
       </c>
       <c r="AI3" t="n">
-        <v>-0.818448753164727</v>
+        <v>1.46625352571675</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-0.0601988315423066</v>
+        <v>-0.301381966398946</v>
       </c>
       <c r="AK3" t="n">
-        <v>-0.957778825063958</v>
+        <v>-0.861089378547494</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.856599580823971</v>
+        <v>0.407291834076323</v>
       </c>
       <c r="AM3" t="n">
-        <v>1.01186856908426</v>
+        <v>0.396505814904339</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.0145058487490362</v>
+        <v>-0.843233101523622</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.393952882847004</v>
+        <v>-1.02295662439932</v>
       </c>
       <c r="AP3" t="n">
-        <v>-0.752260866514854</v>
+        <v>-0.461904909885648</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.20521596660037</v>
+        <v>0.300876519190041</v>
       </c>
       <c r="AR3" t="n">
-        <v>-1.45820810072711</v>
+        <v>-0.259148863287485</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.483662658202089</v>
+        <v>0.93194696179414</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.736691333375208</v>
+        <v>0.775860798805919</v>
       </c>
       <c r="AU3" t="n">
-        <v>2.46854040348094</v>
+        <v>-0.0244004260860656</v>
       </c>
       <c r="AV3" t="n">
-        <v>-0.272489796142487</v>
+        <v>-0.618616091419847</v>
       </c>
       <c r="AW3" t="n">
-        <v>-0.396059668402682</v>
+        <v>-0.281375418859854</v>
       </c>
       <c r="AX3" t="n">
-        <v>-0.689727131076461</v>
+        <v>1.60815881362336</v>
       </c>
       <c r="AY3" t="n">
-        <v>-1.93359704920219</v>
+        <v>0.604809155776409</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.815326385931089</v>
+        <v>0.945679562304206</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.763925034480556</v>
+        <v>0.984867186945876</v>
       </c>
       <c r="BB3" t="n">
-        <v>-0.322882975366675</v>
+        <v>-0.814502883396476</v>
       </c>
       <c r="BC3" t="n">
-        <v>-0.953561907103362</v>
+        <v>0.838836368283563</v>
       </c>
       <c r="BD3" t="n">
-        <v>-0.862965938583339</v>
+        <v>-0.98976370515428</v>
       </c>
       <c r="BE3" t="n">
-        <v>1.46243054656183</v>
+        <v>-0.417716554722542</v>
       </c>
       <c r="BF3" t="n">
-        <v>-0.326530312730801</v>
+        <v>-0.311730327138213</v>
       </c>
       <c r="BG3" t="n">
-        <v>-0.793587624949719</v>
+        <v>-1.56630091935297</v>
       </c>
       <c r="BH3" t="n">
-        <v>-0.187002429754615</v>
+        <v>0.968153002386173</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.0808345760915391</v>
+        <v>1.78001566389557</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.806370441076428</v>
+        <v>1.55100390814407</v>
       </c>
       <c r="BK3" t="n">
-        <v>-0.713626284348292</v>
+        <v>0.99317519278453</v>
       </c>
       <c r="BL3" t="n">
-        <v>-0.983417864621186</v>
+        <v>-0.404324455763866</v>
       </c>
       <c r="BM3" t="n">
-        <v>-1.43445046818451</v>
+        <v>0.221532830813008</v>
       </c>
       <c r="BN3" t="n">
-        <v>-0.416369489635166</v>
+        <v>-0.947548493421025</v>
       </c>
       <c r="BO3" t="n">
-        <v>-0.56034112928169</v>
+        <v>0.897633441555717</v>
       </c>
       <c r="BP3" t="n">
-        <v>-1.9979200606806</v>
+        <v>-0.372163140505052</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.59246158978681</v>
+        <v>0.809191342050779</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.904491605683951</v>
+        <v>-0.770646255633843</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.228048462952152</v>
+        <v>0.152080122464328</v>
       </c>
       <c r="BT3" t="n">
-        <v>1.00781579575924</v>
+        <v>-0.326835058391025</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.918797249580216</v>
+        <v>0.204404313324527</v>
       </c>
       <c r="BV3" t="n">
-        <v>-0.265259909450116</v>
+        <v>1.08468376910405</v>
       </c>
       <c r="BW3" t="n">
-        <v>0.940941596746667</v>
+        <v>-1.08965201441946</v>
       </c>
       <c r="BX3" t="n">
-        <v>-2.09905996748553</v>
+        <v>-1.05479909038332</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.252931547087331</v>
+        <v>-0.753834123866309</v>
       </c>
       <c r="BZ3" t="n">
-        <v>-0.0742734590163371</v>
+        <v>0.623702529355536</v>
       </c>
       <c r="CA3" t="n">
-        <v>1.150683904469</v>
+        <v>-2.10589300691505</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.150892596780629</v>
+        <v>-0.743353484103175</v>
       </c>
       <c r="CC3" t="n">
-        <v>-0.206097929312639</v>
+        <v>-1.24794366413573</v>
       </c>
       <c r="CD3" t="n">
-        <v>1.61121099767614</v>
+        <v>-0.304232984938025</v>
       </c>
       <c r="CE3" t="n">
-        <v>-1.18383802256387</v>
+        <v>1.30404297782457</v>
       </c>
       <c r="CF3" t="n">
-        <v>-0.353650616602278</v>
+        <v>-1.2989951358027</v>
       </c>
       <c r="CG3" t="n">
-        <v>-1.10089939755812</v>
+        <v>1.77555610968437</v>
       </c>
       <c r="CH3" t="n">
-        <v>1.1885525307418</v>
+        <v>0.00869283706515481</v>
       </c>
       <c r="CI3" t="n">
-        <v>-1.9121017592932</v>
+        <v>1.33573339814665</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0.113132933465991</v>
+        <v>-1.3208991847341</v>
       </c>
       <c r="CK3" t="n">
-        <v>0.61616552054814</v>
+        <v>-0.548101172162803</v>
       </c>
       <c r="CL3" t="n">
-        <v>1.0839528319249</v>
+        <v>-0.127295900823037</v>
       </c>
       <c r="CM3" t="n">
-        <v>-0.572126141038828</v>
+        <v>0.678059339023184</v>
       </c>
       <c r="CN3" t="n">
-        <v>-0.694612364744575</v>
+        <v>-0.988518787045919</v>
       </c>
       <c r="CO3" t="n">
-        <v>0.0589140354595188</v>
+        <v>-1.14864519372212</v>
       </c>
       <c r="CP3" t="n">
-        <v>-1.16938794542862</v>
+        <v>-0.0369861140727404</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.0142965964144351</v>
+        <v>0.0263881489102461</v>
       </c>
       <c r="CR3" t="n">
-        <v>-0.122345413260785</v>
+        <v>0.0237100706205712</v>
       </c>
       <c r="CS3" t="n">
-        <v>0.00316043387132161</v>
+        <v>0.228285117223899</v>
       </c>
       <c r="CT3" t="n">
-        <v>0.269302089001132</v>
+        <v>0.294868213817216</v>
       </c>
       <c r="CU3" t="n">
-        <v>-0.22060373964861</v>
+        <v>0.400194288740497</v>
       </c>
       <c r="CV3" t="n">
-        <v>-0.0642734594995518</v>
+        <v>-0.0602880315429535</v>
       </c>
       <c r="CW3" t="n">
-        <v>0.363088773140158</v>
+        <v>-1.91469105597511</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.221716165264753</v>
+        <v>-0.944088911124576</v>
       </c>
       <c r="CY3" t="n">
-        <v>-1.14233798343846</v>
+        <v>-1.85791098187749</v>
       </c>
       <c r="CZ3" t="n">
-        <v>-0.217353349290512</v>
+        <v>0.742040129874045</v>
       </c>
       <c r="DA3" t="n">
-        <v>-0.159347557754572</v>
+        <v>-1.90579052501153</v>
       </c>
       <c r="DB3" t="n">
-        <v>-1.17080870198588</v>
+        <v>-0.217755954622527</v>
       </c>
       <c r="DC3" t="n">
-        <v>1.08972027501259</v>
+        <v>-0.514678860114671</v>
       </c>
       <c r="DD3" t="n">
-        <v>0.0781679718526781</v>
+        <v>-1.96625394923984</v>
       </c>
       <c r="DE3" t="n">
-        <v>-0.531918722928509</v>
+        <v>-0.798881264060309</v>
       </c>
       <c r="DF3" t="n">
-        <v>-1.11440780199853</v>
+        <v>0.829978202388264</v>
       </c>
       <c r="DG3" t="n">
-        <v>-2.72037271040328</v>
+        <v>-0.546496066196478</v>
       </c>
       <c r="DH3" t="n">
-        <v>0.498369553291584</v>
+        <v>0.0041962284064871</v>
       </c>
       <c r="DI3" t="n">
-        <v>1.32773666322897</v>
+        <v>-0.507524775225468</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0.0184640191689905</v>
+        <v>0.0187008973649261</v>
       </c>
       <c r="DK3" t="n">
-        <v>-1.62751535604635</v>
+        <v>-0.541551916533821</v>
       </c>
       <c r="DL3" t="n">
-        <v>-0.455828251202351</v>
+        <v>0.325459282418475</v>
       </c>
       <c r="DM3" t="n">
-        <v>1.5490284104459</v>
+        <v>0.183727141567542</v>
       </c>
       <c r="DN3" t="n">
-        <v>-0.321943120257276</v>
+        <v>1.84613960274062</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.637804417150799</v>
+        <v>1.76126196062849</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.862040462825464</v>
+        <v>1.0802761565024</v>
       </c>
       <c r="DQ3" t="n">
-        <v>-0.06772255012198</v>
+        <v>1.35033471014238</v>
       </c>
       <c r="DR3" t="n">
-        <v>-0.492640372513537</v>
+        <v>0.163229080106905</v>
       </c>
       <c r="DS3" t="n">
-        <v>0.761660368961171</v>
+        <v>-0.199066500938507</v>
       </c>
       <c r="DT3" t="n">
-        <v>-0.69402969396705</v>
+        <v>0.625049097650147</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.414220410213826</v>
+        <v>1.35826297848875</v>
       </c>
       <c r="DV3" t="n">
-        <v>-1.89371331172106</v>
+        <v>0.279357982344611</v>
       </c>
       <c r="DW3" t="n">
-        <v>-1.17081353559205</v>
+        <v>-0.20194193674549</v>
       </c>
       <c r="DX3" t="n">
-        <v>-1.65395057484538</v>
+        <v>-0.156420141754288</v>
       </c>
       <c r="DY3" t="n">
-        <v>-0.286690793906981</v>
+        <v>-1.22062690153038</v>
       </c>
       <c r="DZ3" t="n">
-        <v>-0.347486276478087</v>
+        <v>-0.286030994681369</v>
       </c>
       <c r="EA3" t="n">
-        <v>1.21736175727997</v>
+        <v>-1.35638678014825</v>
       </c>
       <c r="EB3" t="n">
-        <v>1.39288354592942</v>
+        <v>-1.11314466876821</v>
       </c>
       <c r="EC3" t="n">
-        <v>-0.0304861845747724</v>
+        <v>0.408866080441824</v>
       </c>
       <c r="ED3" t="n">
-        <v>-1.69181129661368</v>
+        <v>1.39826099993749</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.882950314916038</v>
+        <v>0.283139980591918</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.243390413537467</v>
+        <v>-1.04049481618663</v>
       </c>
       <c r="EG3" t="n">
-        <v>-0.187364378782289</v>
+        <v>0.218631329824508</v>
       </c>
       <c r="EH3" t="n">
-        <v>-0.968750030629317</v>
+        <v>0.415585160647233</v>
       </c>
       <c r="EI3" t="n">
-        <v>0.401668740706801</v>
+        <v>0.909651429626553</v>
       </c>
       <c r="EJ3" t="n">
-        <v>-0.570351793977554</v>
+        <v>0.196314615139122</v>
       </c>
       <c r="EK3" t="n">
-        <v>1.03792013082633</v>
+        <v>0.0704552393881958</v>
       </c>
       <c r="EL3" t="n">
-        <v>-0.487729406115351</v>
+        <v>-0.377870079869272</v>
       </c>
       <c r="EM3" t="n">
-        <v>1.17205473585938</v>
+        <v>2.05657548339844</v>
       </c>
       <c r="EN3" t="n">
-        <v>1.41916052353407</v>
+        <v>-0.0289898300931772</v>
       </c>
       <c r="EO3" t="n">
-        <v>0.269429996800802</v>
+        <v>0.303876919499582</v>
       </c>
       <c r="EP3" t="n">
-        <v>1.5206923554915</v>
+        <v>-0.947615973292948</v>
       </c>
       <c r="EQ3" t="n">
-        <v>-0.109001340225221</v>
+        <v>-0.594136893293916</v>
       </c>
       <c r="ER3" t="n">
-        <v>1.00573967804933</v>
+        <v>-0.544485925130241</v>
       </c>
       <c r="ES3" t="n">
-        <v>-0.944450790701732</v>
+        <v>0.0201273356146055</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.642047597070607</v>
+        <v>-2.52134630006729</v>
       </c>
       <c r="EU3" t="n">
-        <v>1.31363701674097</v>
+        <v>-0.573518637696091</v>
       </c>
       <c r="EV3" t="n">
-        <v>0.189510675723656</v>
+        <v>2.0169439771542</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.849962393311045</v>
+        <v>-1.55076871125178</v>
       </c>
       <c r="EX3" t="n">
-        <v>-1.8689831477019</v>
+        <v>-1.39090285914185</v>
       </c>
       <c r="EY3" t="n">
-        <v>-1.41971061296785</v>
+        <v>-1.00439259017947</v>
       </c>
       <c r="EZ3" t="n">
-        <v>-0.82056157447286</v>
+        <v>-0.529570948130952</v>
       </c>
       <c r="FA3" t="n">
-        <v>1.36619495600301</v>
+        <v>2.20930028569395</v>
       </c>
       <c r="FB3" t="n">
-        <v>0.30798101440127</v>
+        <v>-1.40429689211475</v>
       </c>
       <c r="FC3" t="n">
-        <v>1.6826224922036</v>
+        <v>0.11597947696018</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.815839311664332</v>
+        <v>0.693685712816985</v>
       </c>
       <c r="FE3" t="n">
-        <v>-0.851893509516883</v>
+        <v>1.17036253045615</v>
       </c>
       <c r="FF3" t="n">
-        <v>-0.177770953275109</v>
+        <v>1.29027222203933</v>
       </c>
       <c r="FG3" t="n">
-        <v>1.87342110538326</v>
+        <v>0.507978844674288</v>
       </c>
       <c r="FH3" t="n">
-        <v>1.82043028573023</v>
+        <v>0.0081613965063691</v>
       </c>
       <c r="FI3" t="n">
-        <v>-0.716149986339407</v>
+        <v>-0.611265363933986</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0.914224701986364</v>
+        <v>0.134627522614471</v>
       </c>
       <c r="FK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN3" t="n">
         <v>1</v>
       </c>
-      <c r="FL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FN3" t="n">
-        <v>0</v>
-      </c>
       <c r="FO3" t="n">
         <v>0</v>
       </c>
       <c r="FP3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FQ3" t="n">
         <v>0</v>
@@ -2554,26 +2554,26 @@
         <v>1</v>
       </c>
       <c r="FS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY3" t="n">
         <v>1</v>
       </c>
-      <c r="FT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY3" t="n">
-        <v>0</v>
-      </c>
       <c r="FZ3" t="n">
         <v>0</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="GD3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GE3" t="n">
         <v>0</v>
@@ -2595,520 +2595,520 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.0291021885929026</v>
+        <v>1.34561069470336</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.187467250070358</v>
+        <v>-1.38945853082221</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.524563555646364</v>
+        <v>-0.244240164512807</v>
       </c>
       <c r="D4" t="n">
-        <v>2.67981540882791</v>
+        <v>-1.5606870317487</v>
       </c>
       <c r="E4" t="n">
-        <v>1.14898100989251</v>
+        <v>-0.864756389824347</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.657297590102655</v>
+        <v>-0.0474365628991265</v>
       </c>
       <c r="G4" t="n">
-        <v>0.377733058868199</v>
+        <v>-1.48607963006136</v>
       </c>
       <c r="H4" t="n">
-        <v>0.533379107131799</v>
+        <v>-0.0257111534908027</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.828937632784198</v>
+        <v>1.49277300053175</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.510216466219332</v>
+        <v>-0.808643700769076</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.71985952430109</v>
+        <v>0.759858752451886</v>
       </c>
       <c r="L4" t="n">
-        <v>1.12553638364443</v>
+        <v>0.670715024420545</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0966595479433467</v>
+        <v>0.86602608348758</v>
       </c>
       <c r="N4" t="n">
-        <v>0.118212660197326</v>
+        <v>-1.15611815258545</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.23205828241546</v>
+        <v>-0.505979140635687</v>
       </c>
       <c r="P4" t="n">
-        <v>0.133468880722265</v>
+        <v>-0.923068383391524</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.048443495022137</v>
+        <v>-0.965316789283607</v>
       </c>
       <c r="R4" t="n">
-        <v>-1.30336845208548</v>
+        <v>-1.54543913336125</v>
       </c>
       <c r="S4" t="n">
-        <v>0.602457069073266</v>
+        <v>-0.667687214121597</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.595616398440225</v>
+        <v>0.963759752905</v>
       </c>
       <c r="U4" t="n">
-        <v>0.30697049876985</v>
+        <v>2.01611833328654</v>
       </c>
       <c r="V4" t="n">
-        <v>-1.17337719174624</v>
+        <v>-0.498904177895415</v>
       </c>
       <c r="W4" t="n">
-        <v>-0.180284882759816</v>
+        <v>-0.549656798572218</v>
       </c>
       <c r="X4" t="n">
-        <v>0.458567918851705</v>
+        <v>0.485577911476225</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.96209186697259</v>
+        <v>-1.16631750919386</v>
       </c>
       <c r="Z4" t="n">
-        <v>-1.51164592756375</v>
+        <v>-0.156541199511852</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0.86342415791035</v>
+        <v>-0.60545402081498</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0.797559005864488</v>
+        <v>-2.73451490065006</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.642148957222401</v>
+        <v>0.452783425337735</v>
       </c>
       <c r="AD4" t="n">
-        <v>1.58782553593688</v>
+        <v>-0.879838767234522</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.16163253796547</v>
+        <v>0.325142915903344</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.5015983943004</v>
+        <v>1.00237671470922</v>
       </c>
       <c r="AG4" t="n">
-        <v>-0.0167997265040032</v>
+        <v>-0.265740894462844</v>
       </c>
       <c r="AH4" t="n">
-        <v>-0.406044754892063</v>
+        <v>-0.218708544226677</v>
       </c>
       <c r="AI4" t="n">
-        <v>-0.818448753164727</v>
+        <v>1.46625352571675</v>
       </c>
       <c r="AJ4" t="n">
-        <v>-0.0601988315423066</v>
+        <v>-0.301381966398946</v>
       </c>
       <c r="AK4" t="n">
-        <v>-0.957778825063958</v>
+        <v>-0.861089378547494</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.856599580823971</v>
+        <v>0.407291834076323</v>
       </c>
       <c r="AM4" t="n">
-        <v>1.01186856908426</v>
+        <v>0.396505814904339</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.0145058487490362</v>
+        <v>-0.843233101523622</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.393952882847004</v>
+        <v>-1.02295662439932</v>
       </c>
       <c r="AP4" t="n">
-        <v>-0.752260866514854</v>
+        <v>-0.461904909885648</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.20521596660037</v>
+        <v>0.300876519190041</v>
       </c>
       <c r="AR4" t="n">
-        <v>-1.45820810072711</v>
+        <v>-0.259148863287485</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.483662658202089</v>
+        <v>0.93194696179414</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.736691333375208</v>
+        <v>0.775860798805919</v>
       </c>
       <c r="AU4" t="n">
-        <v>2.46854040348094</v>
+        <v>-0.0244004260860656</v>
       </c>
       <c r="AV4" t="n">
-        <v>-0.272489796142487</v>
+        <v>-0.618616091419847</v>
       </c>
       <c r="AW4" t="n">
-        <v>-0.396059668402682</v>
+        <v>-0.281375418859854</v>
       </c>
       <c r="AX4" t="n">
-        <v>-0.689727131076461</v>
+        <v>1.60815881362336</v>
       </c>
       <c r="AY4" t="n">
-        <v>-1.93359704920219</v>
+        <v>0.604809155776409</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.815326385931089</v>
+        <v>0.945679562304206</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.763925034480556</v>
+        <v>0.984867186945876</v>
       </c>
       <c r="BB4" t="n">
-        <v>-0.322882975366675</v>
+        <v>-0.814502883396476</v>
       </c>
       <c r="BC4" t="n">
-        <v>-0.953561907103362</v>
+        <v>0.838836368283563</v>
       </c>
       <c r="BD4" t="n">
-        <v>-0.862965938583339</v>
+        <v>-0.98976370515428</v>
       </c>
       <c r="BE4" t="n">
-        <v>1.46243054656183</v>
+        <v>-0.417716554722542</v>
       </c>
       <c r="BF4" t="n">
-        <v>-0.326530312730801</v>
+        <v>-0.311730327138213</v>
       </c>
       <c r="BG4" t="n">
-        <v>-0.793587624949719</v>
+        <v>-1.56630091935297</v>
       </c>
       <c r="BH4" t="n">
-        <v>-0.187002429754615</v>
+        <v>0.968153002386173</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.0808345760915391</v>
+        <v>1.78001566389557</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.806370441076428</v>
+        <v>1.55100390814407</v>
       </c>
       <c r="BK4" t="n">
-        <v>-0.713626284348292</v>
+        <v>0.99317519278453</v>
       </c>
       <c r="BL4" t="n">
-        <v>-0.983417864621186</v>
+        <v>-0.404324455763866</v>
       </c>
       <c r="BM4" t="n">
-        <v>-1.43445046818451</v>
+        <v>0.221532830813008</v>
       </c>
       <c r="BN4" t="n">
-        <v>-0.416369489635166</v>
+        <v>-0.947548493421025</v>
       </c>
       <c r="BO4" t="n">
-        <v>-0.56034112928169</v>
+        <v>0.897633441555717</v>
       </c>
       <c r="BP4" t="n">
-        <v>-1.9979200606806</v>
+        <v>-0.372163140505052</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.59246158978681</v>
+        <v>0.809191342050779</v>
       </c>
       <c r="BR4" t="n">
-        <v>0.904491605683951</v>
+        <v>-0.770646255633843</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.228048462952152</v>
+        <v>0.152080122464328</v>
       </c>
       <c r="BT4" t="n">
-        <v>1.00781579575924</v>
+        <v>-0.326835058391025</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.918797249580216</v>
+        <v>0.204404313324527</v>
       </c>
       <c r="BV4" t="n">
-        <v>-0.265259909450116</v>
+        <v>1.08468376910405</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.940941596746667</v>
+        <v>-1.08965201441946</v>
       </c>
       <c r="BX4" t="n">
-        <v>-2.09905996748553</v>
+        <v>-1.05479909038332</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.252931547087331</v>
+        <v>-0.753834123866309</v>
       </c>
       <c r="BZ4" t="n">
-        <v>-0.0742734590163371</v>
+        <v>0.623702529355536</v>
       </c>
       <c r="CA4" t="n">
-        <v>1.150683904469</v>
+        <v>-2.10589300691505</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.150892596780629</v>
+        <v>-0.743353484103175</v>
       </c>
       <c r="CC4" t="n">
-        <v>-0.206097929312639</v>
+        <v>-1.24794366413573</v>
       </c>
       <c r="CD4" t="n">
-        <v>1.61121099767614</v>
+        <v>-0.304232984938025</v>
       </c>
       <c r="CE4" t="n">
-        <v>-1.18383802256387</v>
+        <v>1.30404297782457</v>
       </c>
       <c r="CF4" t="n">
-        <v>-0.353650616602278</v>
+        <v>-1.2989951358027</v>
       </c>
       <c r="CG4" t="n">
-        <v>-1.10089939755812</v>
+        <v>1.77555610968437</v>
       </c>
       <c r="CH4" t="n">
-        <v>1.1885525307418</v>
+        <v>0.00869283706515481</v>
       </c>
       <c r="CI4" t="n">
-        <v>-1.9121017592932</v>
+        <v>1.33573339814665</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0.113132933465991</v>
+        <v>-1.3208991847341</v>
       </c>
       <c r="CK4" t="n">
-        <v>0.61616552054814</v>
+        <v>-0.548101172162803</v>
       </c>
       <c r="CL4" t="n">
-        <v>1.0839528319249</v>
+        <v>-0.127295900823037</v>
       </c>
       <c r="CM4" t="n">
-        <v>-0.572126141038828</v>
+        <v>0.678059339023184</v>
       </c>
       <c r="CN4" t="n">
-        <v>-0.694612364744575</v>
+        <v>-0.988518787045919</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.0589140354595188</v>
+        <v>-1.14864519372212</v>
       </c>
       <c r="CP4" t="n">
-        <v>-1.16938794542862</v>
+        <v>-0.0369861140727404</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.0142965964144351</v>
+        <v>0.0263881489102461</v>
       </c>
       <c r="CR4" t="n">
-        <v>-0.122345413260785</v>
+        <v>0.0237100706205712</v>
       </c>
       <c r="CS4" t="n">
-        <v>0.00316043387132161</v>
+        <v>0.228285117223899</v>
       </c>
       <c r="CT4" t="n">
-        <v>0.269302089001132</v>
+        <v>0.294868213817216</v>
       </c>
       <c r="CU4" t="n">
-        <v>-0.22060373964861</v>
+        <v>0.400194288740497</v>
       </c>
       <c r="CV4" t="n">
-        <v>-0.0642734594995518</v>
+        <v>-0.0602880315429535</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.363088773140158</v>
+        <v>-1.91469105597511</v>
       </c>
       <c r="CX4" t="n">
-        <v>0.221716165264753</v>
+        <v>-0.944088911124576</v>
       </c>
       <c r="CY4" t="n">
-        <v>-1.14233798343846</v>
+        <v>-1.85791098187749</v>
       </c>
       <c r="CZ4" t="n">
-        <v>-0.217353349290512</v>
+        <v>0.742040129874045</v>
       </c>
       <c r="DA4" t="n">
-        <v>-0.159347557754572</v>
+        <v>-1.90579052501153</v>
       </c>
       <c r="DB4" t="n">
-        <v>-1.17080870198588</v>
+        <v>-0.217755954622527</v>
       </c>
       <c r="DC4" t="n">
-        <v>1.08972027501259</v>
+        <v>-0.514678860114671</v>
       </c>
       <c r="DD4" t="n">
-        <v>0.0781679718526781</v>
+        <v>-1.96625394923984</v>
       </c>
       <c r="DE4" t="n">
-        <v>-0.531918722928509</v>
+        <v>-0.798881264060309</v>
       </c>
       <c r="DF4" t="n">
-        <v>-1.11440780199853</v>
+        <v>0.829978202388264</v>
       </c>
       <c r="DG4" t="n">
-        <v>-2.72037271040328</v>
+        <v>-0.546496066196478</v>
       </c>
       <c r="DH4" t="n">
-        <v>0.498369553291584</v>
+        <v>0.0041962284064871</v>
       </c>
       <c r="DI4" t="n">
-        <v>1.32773666322897</v>
+        <v>-0.507524775225468</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0.0184640191689905</v>
+        <v>0.0187008973649261</v>
       </c>
       <c r="DK4" t="n">
-        <v>-1.62751535604635</v>
+        <v>-0.541551916533821</v>
       </c>
       <c r="DL4" t="n">
-        <v>-0.455828251202351</v>
+        <v>0.325459282418475</v>
       </c>
       <c r="DM4" t="n">
-        <v>1.5490284104459</v>
+        <v>0.183727141567542</v>
       </c>
       <c r="DN4" t="n">
-        <v>-0.321943120257276</v>
+        <v>1.84613960274062</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.637804417150799</v>
+        <v>1.76126196062849</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.862040462825464</v>
+        <v>1.0802761565024</v>
       </c>
       <c r="DQ4" t="n">
-        <v>-0.06772255012198</v>
+        <v>1.35033471014238</v>
       </c>
       <c r="DR4" t="n">
-        <v>-0.492640372513537</v>
+        <v>0.163229080106905</v>
       </c>
       <c r="DS4" t="n">
-        <v>0.761660368961171</v>
+        <v>-0.199066500938507</v>
       </c>
       <c r="DT4" t="n">
-        <v>-0.69402969396705</v>
+        <v>0.625049097650147</v>
       </c>
       <c r="DU4" t="n">
-        <v>0.414220410213826</v>
+        <v>1.35826297848875</v>
       </c>
       <c r="DV4" t="n">
-        <v>-1.89371331172106</v>
+        <v>0.279357982344611</v>
       </c>
       <c r="DW4" t="n">
-        <v>-1.17081353559205</v>
+        <v>-0.20194193674549</v>
       </c>
       <c r="DX4" t="n">
-        <v>-1.65395057484538</v>
+        <v>-0.156420141754288</v>
       </c>
       <c r="DY4" t="n">
-        <v>-0.286690793906981</v>
+        <v>-1.22062690153038</v>
       </c>
       <c r="DZ4" t="n">
-        <v>-0.347486276478087</v>
+        <v>-0.286030994681369</v>
       </c>
       <c r="EA4" t="n">
-        <v>1.21736175727997</v>
+        <v>-1.35638678014825</v>
       </c>
       <c r="EB4" t="n">
-        <v>1.39288354592942</v>
+        <v>-1.11314466876821</v>
       </c>
       <c r="EC4" t="n">
-        <v>-0.0304861845747724</v>
+        <v>0.408866080441824</v>
       </c>
       <c r="ED4" t="n">
-        <v>-1.69181129661368</v>
+        <v>1.39826099993749</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.882950314916038</v>
+        <v>0.283139980591918</v>
       </c>
       <c r="EF4" t="n">
-        <v>0.243390413537467</v>
+        <v>-1.04049481618663</v>
       </c>
       <c r="EG4" t="n">
-        <v>-0.187364378782289</v>
+        <v>0.218631329824508</v>
       </c>
       <c r="EH4" t="n">
-        <v>-0.968750030629317</v>
+        <v>0.415585160647233</v>
       </c>
       <c r="EI4" t="n">
-        <v>0.401668740706801</v>
+        <v>0.909651429626553</v>
       </c>
       <c r="EJ4" t="n">
-        <v>-0.570351793977554</v>
+        <v>0.196314615139122</v>
       </c>
       <c r="EK4" t="n">
-        <v>1.03792013082633</v>
+        <v>0.0704552393881958</v>
       </c>
       <c r="EL4" t="n">
-        <v>-0.487729406115351</v>
+        <v>-0.377870079869272</v>
       </c>
       <c r="EM4" t="n">
-        <v>1.17205473585938</v>
+        <v>2.05657548339844</v>
       </c>
       <c r="EN4" t="n">
-        <v>1.41916052353407</v>
+        <v>-0.0289898300931772</v>
       </c>
       <c r="EO4" t="n">
-        <v>0.269429996800802</v>
+        <v>0.303876919499582</v>
       </c>
       <c r="EP4" t="n">
-        <v>1.5206923554915</v>
+        <v>-0.947615973292948</v>
       </c>
       <c r="EQ4" t="n">
-        <v>-0.109001340225221</v>
+        <v>-0.594136893293916</v>
       </c>
       <c r="ER4" t="n">
-        <v>1.00573967804933</v>
+        <v>-0.544485925130241</v>
       </c>
       <c r="ES4" t="n">
-        <v>-0.944450790701732</v>
+        <v>0.0201273356146055</v>
       </c>
       <c r="ET4" t="n">
-        <v>0.642047597070607</v>
+        <v>-2.52134630006729</v>
       </c>
       <c r="EU4" t="n">
-        <v>1.31363701674097</v>
+        <v>-0.573518637696091</v>
       </c>
       <c r="EV4" t="n">
-        <v>0.189510675723656</v>
+        <v>2.0169439771542</v>
       </c>
       <c r="EW4" t="n">
-        <v>0.849962393311045</v>
+        <v>-1.55076871125178</v>
       </c>
       <c r="EX4" t="n">
-        <v>-1.8689831477019</v>
+        <v>-1.39090285914185</v>
       </c>
       <c r="EY4" t="n">
-        <v>-1.41971061296785</v>
+        <v>-1.00439259017947</v>
       </c>
       <c r="EZ4" t="n">
-        <v>-0.82056157447286</v>
+        <v>-0.529570948130952</v>
       </c>
       <c r="FA4" t="n">
-        <v>1.36619495600301</v>
+        <v>2.20930028569395</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.30798101440127</v>
+        <v>-1.40429689211475</v>
       </c>
       <c r="FC4" t="n">
-        <v>1.6826224922036</v>
+        <v>0.11597947696018</v>
       </c>
       <c r="FD4" t="n">
-        <v>0.815839311664332</v>
+        <v>0.693685712816985</v>
       </c>
       <c r="FE4" t="n">
-        <v>-0.851893509516883</v>
+        <v>1.17036253045615</v>
       </c>
       <c r="FF4" t="n">
-        <v>-0.177770953275109</v>
+        <v>1.29027222203933</v>
       </c>
       <c r="FG4" t="n">
-        <v>1.87342110538326</v>
+        <v>0.507978844674288</v>
       </c>
       <c r="FH4" t="n">
-        <v>1.82043028573023</v>
+        <v>0.0081613965063691</v>
       </c>
       <c r="FI4" t="n">
-        <v>-0.716149986339407</v>
+        <v>-0.611265363933986</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0.914224701986364</v>
+        <v>0.134627522614471</v>
       </c>
       <c r="FK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN4" t="n">
         <v>1</v>
       </c>
-      <c r="FL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FN4" t="n">
-        <v>0</v>
-      </c>
       <c r="FO4" t="n">
         <v>0</v>
       </c>
       <c r="FP4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FQ4" t="n">
         <v>0</v>
@@ -3117,26 +3117,26 @@
         <v>1</v>
       </c>
       <c r="FS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY4" t="n">
         <v>1</v>
       </c>
-      <c r="FT4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY4" t="n">
-        <v>0</v>
-      </c>
       <c r="FZ4" t="n">
         <v>0</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="GD4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GE4" t="n">
         <v>0</v>
